--- a/India Supply Use Table SUT_12-13.xlsx
+++ b/India Supply Use Table SUT_12-13.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wb305167\Documents\python\VAT-Gap\VAT-Gap-Model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49ADFC42-98B6-4D1B-B1CA-83E724CE1F6D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA7AF895-03E5-44D9-954A-399F55AE10C4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8490" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8490" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="supply 2012-13" sheetId="1" r:id="rId1"/>
     <sheet name="use 2012-13" sheetId="9" r:id="rId2"/>
     <sheet name="rates" sheetId="10" r:id="rId3"/>
+    <sheet name="cess_rates" sheetId="11" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'supply 2012-13'!$A$3:$CB$147</definedName>
@@ -107,7 +108,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="594" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="737" uniqueCount="238">
   <si>
     <t>Value in Rs Lakh</t>
   </si>
@@ -819,15 +820,19 @@
   <si>
     <t>srl_no</t>
   </si>
+  <si>
+    <t>cess_rates</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="0_)"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
+    <numFmt numFmtId="166" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="16" x14ac:knownFonts="1">
     <font>
@@ -972,7 +977,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="14">
+  <cellStyleXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
@@ -989,8 +994,9 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -1034,12 +1040,14 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="14">
+  <cellStyles count="15">
     <cellStyle name="Comma 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="Comma 3" xfId="14" xr:uid="{00000000-0005-0000-0000-00003C000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 12 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
     <cellStyle name="Normal 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
@@ -55993,10 +56001,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8D5CBD9-2CA9-455B-B19F-20052C58F7B6}">
-  <dimension ref="A1:C141"/>
+  <dimension ref="A1:D141"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -56004,9 +56012,10 @@
     <col min="1" max="1" width="6" style="6" customWidth="1"/>
     <col min="2" max="2" width="20.7109375" style="6" customWidth="1"/>
     <col min="3" max="3" width="10.140625" style="17" customWidth="1"/>
+    <col min="4" max="4" width="10.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>236</v>
       </c>
@@ -56016,169 +56025,170 @@
       <c r="C1" s="18" t="s">
         <v>234</v>
       </c>
+      <c r="D1" s="19"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="6">
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="C2" s="19">
+      <c r="C2" s="20">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="C3" s="19">
+      <c r="C3" s="20">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="C4" s="19">
+      <c r="C4" s="20">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>4</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="C5" s="19">
-        <v>0</v>
+      <c r="C5" s="20">
+        <v>0.05</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <v>5</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="C6" s="19">
+      <c r="C6" s="20">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>6</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="C7" s="19">
+      <c r="C7" s="20">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <v>7</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="C8" s="19">
+      <c r="C8" s="20">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <v>8</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="C9" s="19">
+      <c r="C9" s="20">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <v>9</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="C10" s="19">
+      <c r="C10" s="20">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
         <v>10</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="C11" s="19">
-        <v>0</v>
+      <c r="C11" s="20">
+        <v>0.05</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
         <v>11</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="C12" s="19">
+      <c r="C12" s="20">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
         <v>12</v>
       </c>
       <c r="B13" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="C13" s="19">
+      <c r="C13" s="20">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
         <v>13</v>
       </c>
       <c r="B14" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="C14" s="19">
-        <v>0</v>
+      <c r="C14" s="20">
+        <v>0.05</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
         <v>14</v>
       </c>
       <c r="B15" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="C15" s="19">
-        <v>0</v>
+      <c r="C15" s="20">
+        <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
         <v>15</v>
       </c>
       <c r="B16" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="C16" s="19">
+      <c r="C16" s="20">
         <v>0</v>
       </c>
     </row>
@@ -56189,7 +56199,7 @@
       <c r="B17" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="C17" s="19">
+      <c r="C17" s="20">
         <v>0</v>
       </c>
     </row>
@@ -56200,8 +56210,8 @@
       <c r="B18" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="C18" s="19">
-        <v>0</v>
+      <c r="C18" s="20">
+        <v>0.18</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -56211,7 +56221,7 @@
       <c r="B19" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="C19" s="19">
+      <c r="C19" s="20">
         <v>0</v>
       </c>
     </row>
@@ -56222,7 +56232,7 @@
       <c r="B20" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="C20" s="19">
+      <c r="C20" s="20">
         <v>0</v>
       </c>
     </row>
@@ -56233,7 +56243,7 @@
       <c r="B21" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="C21" s="19">
+      <c r="C21" s="20">
         <v>0</v>
       </c>
     </row>
@@ -56244,7 +56254,7 @@
       <c r="B22" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="C22" s="19">
+      <c r="C22" s="20">
         <v>0</v>
       </c>
     </row>
@@ -56255,7 +56265,7 @@
       <c r="B23" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="C23" s="19">
+      <c r="C23" s="20">
         <v>0</v>
       </c>
     </row>
@@ -56266,7 +56276,7 @@
       <c r="B24" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="C24" s="19">
+      <c r="C24" s="20">
         <v>0</v>
       </c>
     </row>
@@ -56277,8 +56287,8 @@
       <c r="B25" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="C25" s="19">
-        <v>0</v>
+      <c r="C25" s="20">
+        <v>0.05</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -56288,8 +56298,8 @@
       <c r="B26" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="C26" s="19">
-        <v>0</v>
+      <c r="C26" s="20">
+        <v>0.12</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -56299,7 +56309,7 @@
       <c r="B27" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="C27" s="19">
+      <c r="C27" s="20">
         <v>0</v>
       </c>
     </row>
@@ -56310,8 +56320,8 @@
       <c r="B28" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="C28" s="19">
-        <v>0</v>
+      <c r="C28" s="20">
+        <v>0.05</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -56321,7 +56331,7 @@
       <c r="B29" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="C29" s="19">
+      <c r="C29" s="20">
         <v>0</v>
       </c>
     </row>
@@ -56332,7 +56342,7 @@
       <c r="B30" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="C30" s="19">
+      <c r="C30" s="20">
         <v>0</v>
       </c>
     </row>
@@ -56343,8 +56353,8 @@
       <c r="B31" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="C31" s="19">
-        <v>0</v>
+      <c r="C31" s="20">
+        <v>0.15</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
@@ -56354,8 +56364,8 @@
       <c r="B32" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C32" s="19">
-        <v>0</v>
+      <c r="C32" s="20">
+        <v>0.05</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
@@ -56365,7 +56375,7 @@
       <c r="B33" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="C33" s="19">
+      <c r="C33" s="20">
         <v>0</v>
       </c>
     </row>
@@ -56376,8 +56386,8 @@
       <c r="B34" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="C34" s="19">
-        <v>0</v>
+      <c r="C34" s="20">
+        <v>0.05</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
@@ -56387,8 +56397,8 @@
       <c r="B35" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="C35" s="19">
-        <v>0</v>
+      <c r="C35" s="20">
+        <v>0.05</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
@@ -56398,8 +56408,8 @@
       <c r="B36" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="C36" s="19">
-        <v>0</v>
+      <c r="C36" s="20">
+        <v>0.05</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
@@ -56409,8 +56419,8 @@
       <c r="B37" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C37" s="19">
-        <v>0</v>
+      <c r="C37" s="20">
+        <v>0.05</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
@@ -56420,8 +56430,8 @@
       <c r="B38" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="C38" s="19">
-        <v>0</v>
+      <c r="C38" s="20">
+        <v>0.05</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
@@ -56431,8 +56441,8 @@
       <c r="B39" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="C39" s="19">
-        <v>0</v>
+      <c r="C39" s="20">
+        <v>0.05</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
@@ -56442,8 +56452,8 @@
       <c r="B40" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="C40" s="19">
-        <v>0</v>
+      <c r="C40" s="20">
+        <v>0.05</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
@@ -56453,8 +56463,8 @@
       <c r="B41" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="C41" s="19">
-        <v>0</v>
+      <c r="C41" s="20">
+        <v>0.05</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
@@ -56464,8 +56474,8 @@
       <c r="B42" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="C42" s="19">
-        <v>0</v>
+      <c r="C42" s="20">
+        <v>0.05</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
@@ -56475,8 +56485,8 @@
       <c r="B43" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="C43" s="19">
-        <v>0</v>
+      <c r="C43" s="20">
+        <v>0.12</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
@@ -56486,8 +56496,8 @@
       <c r="B44" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="C44" s="19">
-        <v>0</v>
+      <c r="C44" s="20">
+        <v>0.05</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
@@ -56497,8 +56507,8 @@
       <c r="B45" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="C45" s="19">
-        <v>0</v>
+      <c r="C45" s="20">
+        <v>0.05</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
@@ -56508,8 +56518,8 @@
       <c r="B46" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="C46" s="19">
-        <v>0</v>
+      <c r="C46" s="20">
+        <v>0.12</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
@@ -56519,8 +56529,8 @@
       <c r="B47" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="C47" s="19">
-        <v>0</v>
+      <c r="C47" s="20">
+        <v>0.05</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
@@ -56530,8 +56540,8 @@
       <c r="B48" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="C48" s="19">
-        <v>0</v>
+      <c r="C48" s="20">
+        <v>0.12</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
@@ -56541,8 +56551,8 @@
       <c r="B49" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="C49" s="19">
-        <v>0</v>
+      <c r="C49" s="20">
+        <v>0.05</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
@@ -56552,8 +56562,8 @@
       <c r="B50" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="C50" s="19">
-        <v>0</v>
+      <c r="C50" s="20">
+        <v>0.18</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
@@ -56563,8 +56573,8 @@
       <c r="B51" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="C51" s="19">
-        <v>0</v>
+      <c r="C51" s="20">
+        <v>0.18</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
@@ -56574,7 +56584,7 @@
       <c r="B52" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="C52" s="19">
+      <c r="C52" s="20">
         <v>0</v>
       </c>
     </row>
@@ -56585,8 +56595,8 @@
       <c r="B53" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="C53" s="19">
-        <v>0</v>
+      <c r="C53" s="20">
+        <v>0.18</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
@@ -56596,8 +56606,8 @@
       <c r="B54" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="C54" s="19">
-        <v>0</v>
+      <c r="C54" s="20">
+        <v>0.05</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
@@ -56607,8 +56617,8 @@
       <c r="B55" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="C55" s="19">
-        <v>0</v>
+      <c r="C55" s="20">
+        <v>0.05</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
@@ -56618,8 +56628,8 @@
       <c r="B56" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="C56" s="19">
-        <v>0.18</v>
+      <c r="C56" s="20">
+        <v>0.28000000000000003</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
@@ -56629,8 +56639,8 @@
       <c r="B57" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="C57" s="19">
-        <v>0.18</v>
+      <c r="C57" s="20">
+        <v>0.05</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
@@ -56640,8 +56650,8 @@
       <c r="B58" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="C58" s="19">
-        <v>0.18</v>
+      <c r="C58" s="20">
+        <v>0.12</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
@@ -56651,8 +56661,8 @@
       <c r="B59" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="C59" s="19">
-        <v>0.18</v>
+      <c r="C59" s="20">
+        <v>0.05</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
@@ -56662,8 +56672,8 @@
       <c r="B60" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="C60" s="19">
-        <v>0.18</v>
+      <c r="C60" s="20">
+        <v>0.05</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
@@ -56673,8 +56683,8 @@
       <c r="B61" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="C61" s="19">
-        <v>0.18</v>
+      <c r="C61" s="20">
+        <v>0.05</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
@@ -56684,8 +56694,8 @@
       <c r="B62" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="C62" s="19">
-        <v>0.18</v>
+      <c r="C62" s="20">
+        <v>0.05</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
@@ -56695,8 +56705,8 @@
       <c r="B63" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="C63" s="19">
-        <v>0.18</v>
+      <c r="C63" s="20">
+        <v>0.05</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
@@ -56706,7 +56716,7 @@
       <c r="B64" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="C64" s="19">
+      <c r="C64" s="20">
         <v>0.18</v>
       </c>
     </row>
@@ -56717,7 +56727,7 @@
       <c r="B65" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="C65" s="19">
+      <c r="C65" s="20">
         <v>0.18</v>
       </c>
     </row>
@@ -56728,8 +56738,8 @@
       <c r="B66" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="C66" s="19">
-        <v>0.18</v>
+      <c r="C66" s="20">
+        <v>0.12</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
@@ -56739,8 +56749,8 @@
       <c r="B67" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="C67" s="19">
-        <v>0.18</v>
+      <c r="C67" s="20">
+        <v>0.12</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
@@ -56750,7 +56760,7 @@
       <c r="B68" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="C68" s="19">
+      <c r="C68" s="20">
         <v>0.18</v>
       </c>
     </row>
@@ -56761,7 +56771,7 @@
       <c r="B69" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="C69" s="19">
+      <c r="C69" s="20">
         <v>0.18</v>
       </c>
     </row>
@@ -56772,7 +56782,7 @@
       <c r="B70" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="C70" s="19">
+      <c r="C70" s="20">
         <v>0.18</v>
       </c>
     </row>
@@ -56783,7 +56793,7 @@
       <c r="B71" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="C71" s="19">
+      <c r="C71" s="20">
         <v>0.18</v>
       </c>
     </row>
@@ -56794,8 +56804,8 @@
       <c r="B72" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="C72" s="19">
-        <v>0.18</v>
+      <c r="C72" s="20">
+        <v>0.05</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
@@ -56805,7 +56815,7 @@
       <c r="B73" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="C73" s="19">
+      <c r="C73" s="20">
         <v>0.18</v>
       </c>
     </row>
@@ -56816,7 +56826,7 @@
       <c r="B74" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="C74" s="19">
+      <c r="C74" s="20">
         <v>0.18</v>
       </c>
     </row>
@@ -56827,7 +56837,7 @@
       <c r="B75" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="C75" s="19">
+      <c r="C75" s="20">
         <v>0.18</v>
       </c>
     </row>
@@ -56838,8 +56848,8 @@
       <c r="B76" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="C76" s="19">
-        <v>0.18</v>
+      <c r="C76" s="20">
+        <v>0.05</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
@@ -56849,7 +56859,7 @@
       <c r="B77" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="C77" s="19">
+      <c r="C77" s="20">
         <v>0.18</v>
       </c>
     </row>
@@ -56860,7 +56870,7 @@
       <c r="B78" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="C78" s="19">
+      <c r="C78" s="20">
         <v>0.18</v>
       </c>
     </row>
@@ -56871,8 +56881,8 @@
       <c r="B79" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="C79" s="19">
-        <v>0.18</v>
+      <c r="C79" s="20">
+        <v>0.12</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
@@ -56882,7 +56892,7 @@
       <c r="B80" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="C80" s="19">
+      <c r="C80" s="20">
         <v>0.18</v>
       </c>
     </row>
@@ -56893,8 +56903,8 @@
       <c r="B81" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="C81" s="19">
-        <v>0.18</v>
+      <c r="C81" s="20">
+        <v>0.05</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
@@ -56904,7 +56914,7 @@
       <c r="B82" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="C82" s="19">
+      <c r="C82" s="20">
         <v>0.18</v>
       </c>
     </row>
@@ -56915,8 +56925,8 @@
       <c r="B83" s="6" t="s">
         <v>160</v>
       </c>
-      <c r="C83" s="19">
-        <v>0.18</v>
+      <c r="C83" s="20">
+        <v>0.28000000000000003</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
@@ -56926,7 +56936,7 @@
       <c r="B84" s="6" t="s">
         <v>161</v>
       </c>
-      <c r="C84" s="19">
+      <c r="C84" s="20">
         <v>0.18</v>
       </c>
     </row>
@@ -56937,7 +56947,7 @@
       <c r="B85" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="C85" s="19">
+      <c r="C85" s="20">
         <v>0.18</v>
       </c>
     </row>
@@ -56948,7 +56958,7 @@
       <c r="B86" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="C86" s="19">
+      <c r="C86" s="20">
         <v>0.18</v>
       </c>
     </row>
@@ -56959,7 +56969,7 @@
       <c r="B87" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="C87" s="19">
+      <c r="C87" s="20">
         <v>0.18</v>
       </c>
     </row>
@@ -56970,7 +56980,7 @@
       <c r="B88" s="6" t="s">
         <v>165</v>
       </c>
-      <c r="C88" s="19">
+      <c r="C88" s="20">
         <v>0.18</v>
       </c>
     </row>
@@ -56981,7 +56991,7 @@
       <c r="B89" s="6" t="s">
         <v>166</v>
       </c>
-      <c r="C89" s="19">
+      <c r="C89" s="20">
         <v>0.18</v>
       </c>
     </row>
@@ -56992,7 +57002,7 @@
       <c r="B90" s="6" t="s">
         <v>167</v>
       </c>
-      <c r="C90" s="19">
+      <c r="C90" s="20">
         <v>0.18</v>
       </c>
     </row>
@@ -57003,8 +57013,8 @@
       <c r="B91" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="C91" s="19">
-        <v>0.18</v>
+      <c r="C91" s="20">
+        <v>0.28000000000000003</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
@@ -57014,7 +57024,7 @@
       <c r="B92" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="C92" s="19">
+      <c r="C92" s="20">
         <v>0.18</v>
       </c>
     </row>
@@ -57025,7 +57035,7 @@
       <c r="B93" s="6" t="s">
         <v>170</v>
       </c>
-      <c r="C93" s="19">
+      <c r="C93" s="20">
         <v>0.18</v>
       </c>
     </row>
@@ -57036,7 +57046,7 @@
       <c r="B94" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="C94" s="19">
+      <c r="C94" s="20">
         <v>0.18</v>
       </c>
     </row>
@@ -57047,7 +57057,7 @@
       <c r="B95" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="C95" s="19">
+      <c r="C95" s="20">
         <v>0.18</v>
       </c>
     </row>
@@ -57058,7 +57068,7 @@
       <c r="B96" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="C96" s="19">
+      <c r="C96" s="20">
         <v>0.18</v>
       </c>
     </row>
@@ -57069,7 +57079,7 @@
       <c r="B97" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="C97" s="19">
+      <c r="C97" s="20">
         <v>0.18</v>
       </c>
     </row>
@@ -57080,8 +57090,8 @@
       <c r="B98" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="C98" s="19">
-        <v>0.18</v>
+      <c r="C98" s="20">
+        <v>0.28000000000000003</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
@@ -57091,8 +57101,8 @@
       <c r="B99" s="6" t="s">
         <v>176</v>
       </c>
-      <c r="C99" s="19">
-        <v>0.18</v>
+      <c r="C99" s="20">
+        <v>0.28000000000000003</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
@@ -57102,8 +57112,8 @@
       <c r="B100" s="6" t="s">
         <v>177</v>
       </c>
-      <c r="C100" s="19">
-        <v>0.18</v>
+      <c r="C100" s="20">
+        <v>0.12</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
@@ -57113,8 +57123,8 @@
       <c r="B101" s="6" t="s">
         <v>178</v>
       </c>
-      <c r="C101" s="19">
-        <v>0.18</v>
+      <c r="C101" s="20">
+        <v>0.28000000000000003</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
@@ -57124,8 +57134,8 @@
       <c r="B102" s="6" t="s">
         <v>179</v>
       </c>
-      <c r="C102" s="19">
-        <v>0.18</v>
+      <c r="C102" s="20">
+        <v>0.28000000000000003</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
@@ -57135,8 +57145,8 @@
       <c r="B103" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="C103" s="19">
-        <v>0.18</v>
+      <c r="C103" s="20">
+        <v>0.12</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
@@ -57146,7 +57156,7 @@
       <c r="B104" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="C104" s="19">
+      <c r="C104" s="20">
         <v>0.18</v>
       </c>
     </row>
@@ -57157,8 +57167,8 @@
       <c r="B105" s="6" t="s">
         <v>182</v>
       </c>
-      <c r="C105" s="19">
-        <v>0.18</v>
+      <c r="C105" s="20">
+        <v>0.05</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
@@ -57168,8 +57178,8 @@
       <c r="B106" s="6" t="s">
         <v>183</v>
       </c>
-      <c r="C106" s="19">
-        <v>0.18</v>
+      <c r="C106" s="20">
+        <v>0.05</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
@@ -57179,8 +57189,8 @@
       <c r="B107" s="6" t="s">
         <v>184</v>
       </c>
-      <c r="C107" s="19">
-        <v>0.18</v>
+      <c r="C107" s="20">
+        <v>0.28000000000000003</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
@@ -57190,8 +57200,8 @@
       <c r="B108" s="6" t="s">
         <v>185</v>
       </c>
-      <c r="C108" s="19">
-        <v>0.18</v>
+      <c r="C108" s="20">
+        <v>0.28000000000000003</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
@@ -57201,8 +57211,8 @@
       <c r="B109" s="6" t="s">
         <v>186</v>
       </c>
-      <c r="C109" s="19">
-        <v>0.18</v>
+      <c r="C109" s="20">
+        <v>0.12</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
@@ -57212,8 +57222,8 @@
       <c r="B110" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="C110" s="19">
-        <v>0.18</v>
+      <c r="C110" s="20">
+        <v>0.05</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
@@ -57223,7 +57233,7 @@
       <c r="B111" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="C111" s="19">
+      <c r="C111" s="20">
         <v>0.18</v>
       </c>
     </row>
@@ -57234,8 +57244,8 @@
       <c r="B112" s="6" t="s">
         <v>189</v>
       </c>
-      <c r="C112" s="19">
-        <v>0.18</v>
+      <c r="C112" s="20">
+        <v>0.03</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
@@ -57245,7 +57255,7 @@
       <c r="B113" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="C113" s="19">
+      <c r="C113" s="20">
         <v>0.18</v>
       </c>
     </row>
@@ -57256,7 +57266,7 @@
       <c r="B114" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="C114" s="19">
+      <c r="C114" s="20">
         <v>0.18</v>
       </c>
     </row>
@@ -57267,8 +57277,8 @@
       <c r="B115" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="C115" s="19">
-        <v>0.18</v>
+      <c r="C115" s="20">
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
@@ -57278,8 +57288,8 @@
       <c r="B116" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="C116" s="19">
-        <v>0.18</v>
+      <c r="C116" s="20">
+        <v>0.05</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
@@ -57289,8 +57299,8 @@
       <c r="B117" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="C117" s="19">
-        <v>0.18</v>
+      <c r="C117" s="20">
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
@@ -57300,7 +57310,7 @@
       <c r="B118" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="C118" s="19">
+      <c r="C118" s="20">
         <v>0.18</v>
       </c>
     </row>
@@ -57311,7 +57321,7 @@
       <c r="B119" s="6" t="s">
         <v>220</v>
       </c>
-      <c r="C119" s="19">
+      <c r="C119" s="20">
         <v>0.18</v>
       </c>
     </row>
@@ -57322,8 +57332,8 @@
       <c r="B120" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="C120" s="19">
-        <v>0.18</v>
+      <c r="C120" s="20">
+        <v>0.05</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
@@ -57333,8 +57343,8 @@
       <c r="B121" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="C121" s="19">
-        <v>0.18</v>
+      <c r="C121" s="20">
+        <v>0.05</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
@@ -57344,8 +57354,8 @@
       <c r="B122" s="6" t="s">
         <v>193</v>
       </c>
-      <c r="C122" s="19">
-        <v>0.18</v>
+      <c r="C122" s="20">
+        <v>0.05</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
@@ -57355,8 +57365,8 @@
       <c r="B123" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="C123" s="19">
-        <v>0.18</v>
+      <c r="C123" s="20">
+        <v>0.05</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
@@ -57366,7 +57376,7 @@
       <c r="B124" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="C124" s="19">
+      <c r="C124" s="20">
         <v>0.18</v>
       </c>
     </row>
@@ -57377,7 +57387,7 @@
       <c r="B125" s="6" t="s">
         <v>195</v>
       </c>
-      <c r="C125" s="19">
+      <c r="C125" s="20">
         <v>0.18</v>
       </c>
     </row>
@@ -57388,7 +57398,7 @@
       <c r="B126" s="6" t="s">
         <v>196</v>
       </c>
-      <c r="C126" s="19">
+      <c r="C126" s="20">
         <v>0.18</v>
       </c>
     </row>
@@ -57399,7 +57409,7 @@
       <c r="B127" s="6" t="s">
         <v>197</v>
       </c>
-      <c r="C127" s="19">
+      <c r="C127" s="20">
         <v>0.18</v>
       </c>
     </row>
@@ -57410,7 +57420,7 @@
       <c r="B128" s="6" t="s">
         <v>198</v>
       </c>
-      <c r="C128" s="19">
+      <c r="C128" s="20">
         <v>0.18</v>
       </c>
     </row>
@@ -57421,7 +57431,7 @@
       <c r="B129" s="6" t="s">
         <v>199</v>
       </c>
-      <c r="C129" s="19">
+      <c r="C129" s="20">
         <v>0.18</v>
       </c>
     </row>
@@ -57432,7 +57442,7 @@
       <c r="B130" s="6" t="s">
         <v>200</v>
       </c>
-      <c r="C130" s="19">
+      <c r="C130" s="20">
         <v>0.18</v>
       </c>
     </row>
@@ -57443,7 +57453,7 @@
       <c r="B131" s="6" t="s">
         <v>201</v>
       </c>
-      <c r="C131" s="19">
+      <c r="C131" s="20">
         <v>0.18</v>
       </c>
     </row>
@@ -57454,7 +57464,7 @@
       <c r="B132" s="6" t="s">
         <v>202</v>
       </c>
-      <c r="C132" s="19">
+      <c r="C132" s="20">
         <v>0.18</v>
       </c>
     </row>
@@ -57465,7 +57475,7 @@
       <c r="B133" s="6" t="s">
         <v>203</v>
       </c>
-      <c r="C133" s="19">
+      <c r="C133" s="20">
         <v>0.18</v>
       </c>
     </row>
@@ -57476,7 +57486,7 @@
       <c r="B134" s="6" t="s">
         <v>204</v>
       </c>
-      <c r="C134" s="19">
+      <c r="C134" s="20">
         <v>0.18</v>
       </c>
     </row>
@@ -57487,7 +57497,7 @@
       <c r="B135" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="C135" s="19">
+      <c r="C135" s="20">
         <v>0.18</v>
       </c>
     </row>
@@ -57498,7 +57508,7 @@
       <c r="B136" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="C136" s="19">
+      <c r="C136" s="20">
         <v>0.18</v>
       </c>
     </row>
@@ -57509,7 +57519,7 @@
       <c r="B137" s="6" t="s">
         <v>205</v>
       </c>
-      <c r="C137" s="19">
+      <c r="C137" s="20">
         <v>0.18</v>
       </c>
     </row>
@@ -57520,7 +57530,7 @@
       <c r="B138" s="6" t="s">
         <v>206</v>
       </c>
-      <c r="C138" s="19">
+      <c r="C138" s="20">
         <v>0.18</v>
       </c>
     </row>
@@ -57531,7 +57541,7 @@
       <c r="B139" s="6" t="s">
         <v>207</v>
       </c>
-      <c r="C139" s="19">
+      <c r="C139" s="20">
         <v>0.18</v>
       </c>
     </row>
@@ -57542,7 +57552,7 @@
       <c r="B140" s="6" t="s">
         <v>208</v>
       </c>
-      <c r="C140" s="19">
+      <c r="C140" s="20">
         <v>0.18</v>
       </c>
     </row>
@@ -57553,7 +57563,7 @@
       <c r="B141" s="6" t="s">
         <v>221</v>
       </c>
-      <c r="C141" s="19">
+      <c r="C141" s="20">
         <v>0.18</v>
       </c>
     </row>
@@ -57561,4 +57571,1573 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9294B521-AC8C-436A-A976-E4547F3227D2}">
+  <dimension ref="A1:C141"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="6" style="21" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" style="21" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" style="17" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="21" t="s">
+        <v>236</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>235</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="21">
+        <v>1</v>
+      </c>
+      <c r="B2" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="C2" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="21">
+        <v>2</v>
+      </c>
+      <c r="B3" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="C3" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="21">
+        <v>3</v>
+      </c>
+      <c r="B4" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="C4" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="21">
+        <v>4</v>
+      </c>
+      <c r="B5" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="C5" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="21">
+        <v>5</v>
+      </c>
+      <c r="B6" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="C6" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="21">
+        <v>6</v>
+      </c>
+      <c r="B7" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="C7" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="21">
+        <v>7</v>
+      </c>
+      <c r="B8" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="C8" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="21">
+        <v>8</v>
+      </c>
+      <c r="B9" s="21" t="s">
+        <v>87</v>
+      </c>
+      <c r="C9" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="21">
+        <v>9</v>
+      </c>
+      <c r="B10" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="C10" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="21">
+        <v>10</v>
+      </c>
+      <c r="B11" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="C11" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="21">
+        <v>11</v>
+      </c>
+      <c r="B12" s="21" t="s">
+        <v>90</v>
+      </c>
+      <c r="C12" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="21">
+        <v>12</v>
+      </c>
+      <c r="B13" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="C13" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="21">
+        <v>13</v>
+      </c>
+      <c r="B14" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="C14" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="21">
+        <v>14</v>
+      </c>
+      <c r="B15" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="C15" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="21">
+        <v>15</v>
+      </c>
+      <c r="B16" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="C16" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="21">
+        <v>16</v>
+      </c>
+      <c r="B17" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="C17" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="21">
+        <v>17</v>
+      </c>
+      <c r="B18" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="C18" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="21">
+        <v>18</v>
+      </c>
+      <c r="B19" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="C19" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="21">
+        <v>19</v>
+      </c>
+      <c r="B20" s="21" t="s">
+        <v>98</v>
+      </c>
+      <c r="C20" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="21">
+        <v>20</v>
+      </c>
+      <c r="B21" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="C21" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="21">
+        <v>21</v>
+      </c>
+      <c r="B22" s="21" t="s">
+        <v>100</v>
+      </c>
+      <c r="C22" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="21">
+        <v>22</v>
+      </c>
+      <c r="B23" s="21" t="s">
+        <v>101</v>
+      </c>
+      <c r="C23" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="21">
+        <v>23</v>
+      </c>
+      <c r="B24" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="C24" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="21">
+        <v>24</v>
+      </c>
+      <c r="B25" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="C25" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="21">
+        <v>25</v>
+      </c>
+      <c r="B26" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="C26" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="21">
+        <v>26</v>
+      </c>
+      <c r="B27" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="C27" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="21">
+        <v>27</v>
+      </c>
+      <c r="B28" s="21" t="s">
+        <v>106</v>
+      </c>
+      <c r="C28" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="21">
+        <v>28</v>
+      </c>
+      <c r="B29" s="21" t="s">
+        <v>107</v>
+      </c>
+      <c r="C29" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="21">
+        <v>29</v>
+      </c>
+      <c r="B30" s="21" t="s">
+        <v>108</v>
+      </c>
+      <c r="C30" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="21">
+        <v>30</v>
+      </c>
+      <c r="B31" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="C31" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="21">
+        <v>31</v>
+      </c>
+      <c r="B32" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="C32" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="21">
+        <v>32</v>
+      </c>
+      <c r="B33" s="21" t="s">
+        <v>110</v>
+      </c>
+      <c r="C33" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="21">
+        <v>33</v>
+      </c>
+      <c r="B34" s="21" t="s">
+        <v>111</v>
+      </c>
+      <c r="C34" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="21">
+        <v>34</v>
+      </c>
+      <c r="B35" s="21" t="s">
+        <v>112</v>
+      </c>
+      <c r="C35" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="21">
+        <v>35</v>
+      </c>
+      <c r="B36" s="21" t="s">
+        <v>113</v>
+      </c>
+      <c r="C36" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="21">
+        <v>36</v>
+      </c>
+      <c r="B37" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="C37" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="21">
+        <v>37</v>
+      </c>
+      <c r="B38" s="21" t="s">
+        <v>115</v>
+      </c>
+      <c r="C38" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="21">
+        <v>38</v>
+      </c>
+      <c r="B39" s="21" t="s">
+        <v>116</v>
+      </c>
+      <c r="C39" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="21">
+        <v>39</v>
+      </c>
+      <c r="B40" s="21" t="s">
+        <v>117</v>
+      </c>
+      <c r="C40" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="21">
+        <v>40</v>
+      </c>
+      <c r="B41" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="C41" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="21">
+        <v>41</v>
+      </c>
+      <c r="B42" s="21" t="s">
+        <v>119</v>
+      </c>
+      <c r="C42" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="21">
+        <v>42</v>
+      </c>
+      <c r="B43" s="21" t="s">
+        <v>120</v>
+      </c>
+      <c r="C43" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="21">
+        <v>43</v>
+      </c>
+      <c r="B44" s="21" t="s">
+        <v>121</v>
+      </c>
+      <c r="C44" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="21">
+        <v>44</v>
+      </c>
+      <c r="B45" s="21" t="s">
+        <v>122</v>
+      </c>
+      <c r="C45" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="21">
+        <v>45</v>
+      </c>
+      <c r="B46" s="21" t="s">
+        <v>123</v>
+      </c>
+      <c r="C46" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="21">
+        <v>46</v>
+      </c>
+      <c r="B47" s="21" t="s">
+        <v>124</v>
+      </c>
+      <c r="C47" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="21">
+        <v>47</v>
+      </c>
+      <c r="B48" s="21" t="s">
+        <v>125</v>
+      </c>
+      <c r="C48" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="21">
+        <v>48</v>
+      </c>
+      <c r="B49" s="21" t="s">
+        <v>126</v>
+      </c>
+      <c r="C49" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="21">
+        <v>49</v>
+      </c>
+      <c r="B50" s="21" t="s">
+        <v>127</v>
+      </c>
+      <c r="C50" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="21">
+        <v>50</v>
+      </c>
+      <c r="B51" s="21" t="s">
+        <v>128</v>
+      </c>
+      <c r="C51" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="21">
+        <v>51</v>
+      </c>
+      <c r="B52" s="21" t="s">
+        <v>129</v>
+      </c>
+      <c r="C52" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="21">
+        <v>52</v>
+      </c>
+      <c r="B53" s="21" t="s">
+        <v>130</v>
+      </c>
+      <c r="C53" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="21">
+        <v>53</v>
+      </c>
+      <c r="B54" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="C54" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="21">
+        <v>54</v>
+      </c>
+      <c r="B55" s="21" t="s">
+        <v>132</v>
+      </c>
+      <c r="C55" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="21">
+        <v>55</v>
+      </c>
+      <c r="B56" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="C56" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="21">
+        <v>56</v>
+      </c>
+      <c r="B57" s="21" t="s">
+        <v>134</v>
+      </c>
+      <c r="C57" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" s="21">
+        <v>57</v>
+      </c>
+      <c r="B58" s="21" t="s">
+        <v>135</v>
+      </c>
+      <c r="C58" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" s="21">
+        <v>58</v>
+      </c>
+      <c r="B59" s="21" t="s">
+        <v>136</v>
+      </c>
+      <c r="C59" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" s="21">
+        <v>59</v>
+      </c>
+      <c r="B60" s="21" t="s">
+        <v>137</v>
+      </c>
+      <c r="C60" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" s="21">
+        <v>60</v>
+      </c>
+      <c r="B61" s="21" t="s">
+        <v>138</v>
+      </c>
+      <c r="C61" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" s="21">
+        <v>61</v>
+      </c>
+      <c r="B62" s="21" t="s">
+        <v>139</v>
+      </c>
+      <c r="C62" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" s="21">
+        <v>62</v>
+      </c>
+      <c r="B63" s="21" t="s">
+        <v>140</v>
+      </c>
+      <c r="C63" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" s="21">
+        <v>63</v>
+      </c>
+      <c r="B64" s="21" t="s">
+        <v>141</v>
+      </c>
+      <c r="C64" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" s="21">
+        <v>64</v>
+      </c>
+      <c r="B65" s="21" t="s">
+        <v>142</v>
+      </c>
+      <c r="C65" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" s="21">
+        <v>65</v>
+      </c>
+      <c r="B66" s="21" t="s">
+        <v>143</v>
+      </c>
+      <c r="C66" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" s="21">
+        <v>66</v>
+      </c>
+      <c r="B67" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="C67" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" s="21">
+        <v>67</v>
+      </c>
+      <c r="B68" s="21" t="s">
+        <v>145</v>
+      </c>
+      <c r="C68" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" s="21">
+        <v>68</v>
+      </c>
+      <c r="B69" s="21" t="s">
+        <v>146</v>
+      </c>
+      <c r="C69" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" s="21">
+        <v>69</v>
+      </c>
+      <c r="B70" s="21" t="s">
+        <v>147</v>
+      </c>
+      <c r="C70" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" s="21">
+        <v>70</v>
+      </c>
+      <c r="B71" s="21" t="s">
+        <v>148</v>
+      </c>
+      <c r="C71" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" s="21">
+        <v>71</v>
+      </c>
+      <c r="B72" s="21" t="s">
+        <v>149</v>
+      </c>
+      <c r="C72" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" s="21">
+        <v>72</v>
+      </c>
+      <c r="B73" s="21" t="s">
+        <v>150</v>
+      </c>
+      <c r="C73" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" s="21">
+        <v>73</v>
+      </c>
+      <c r="B74" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="C74" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" s="21">
+        <v>74</v>
+      </c>
+      <c r="B75" s="21" t="s">
+        <v>152</v>
+      </c>
+      <c r="C75" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" s="21">
+        <v>75</v>
+      </c>
+      <c r="B76" s="21" t="s">
+        <v>153</v>
+      </c>
+      <c r="C76" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" s="21">
+        <v>76</v>
+      </c>
+      <c r="B77" s="21" t="s">
+        <v>154</v>
+      </c>
+      <c r="C77" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" s="21">
+        <v>77</v>
+      </c>
+      <c r="B78" s="21" t="s">
+        <v>155</v>
+      </c>
+      <c r="C78" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" s="21">
+        <v>78</v>
+      </c>
+      <c r="B79" s="21" t="s">
+        <v>156</v>
+      </c>
+      <c r="C79" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" s="21">
+        <v>79</v>
+      </c>
+      <c r="B80" s="21" t="s">
+        <v>157</v>
+      </c>
+      <c r="C80" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" s="21">
+        <v>80</v>
+      </c>
+      <c r="B81" s="21" t="s">
+        <v>158</v>
+      </c>
+      <c r="C81" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" s="21">
+        <v>81</v>
+      </c>
+      <c r="B82" s="21" t="s">
+        <v>159</v>
+      </c>
+      <c r="C82" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" s="21">
+        <v>82</v>
+      </c>
+      <c r="B83" s="21" t="s">
+        <v>160</v>
+      </c>
+      <c r="C83" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" s="21">
+        <v>83</v>
+      </c>
+      <c r="B84" s="21" t="s">
+        <v>161</v>
+      </c>
+      <c r="C84" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" s="21">
+        <v>84</v>
+      </c>
+      <c r="B85" s="21" t="s">
+        <v>162</v>
+      </c>
+      <c r="C85" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" s="21">
+        <v>85</v>
+      </c>
+      <c r="B86" s="21" t="s">
+        <v>163</v>
+      </c>
+      <c r="C86" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" s="21">
+        <v>86</v>
+      </c>
+      <c r="B87" s="21" t="s">
+        <v>164</v>
+      </c>
+      <c r="C87" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" s="21">
+        <v>87</v>
+      </c>
+      <c r="B88" s="21" t="s">
+        <v>165</v>
+      </c>
+      <c r="C88" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" s="21">
+        <v>88</v>
+      </c>
+      <c r="B89" s="21" t="s">
+        <v>166</v>
+      </c>
+      <c r="C89" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" s="21">
+        <v>89</v>
+      </c>
+      <c r="B90" s="21" t="s">
+        <v>167</v>
+      </c>
+      <c r="C90" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" s="21">
+        <v>90</v>
+      </c>
+      <c r="B91" s="21" t="s">
+        <v>168</v>
+      </c>
+      <c r="C91" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92" s="21">
+        <v>91</v>
+      </c>
+      <c r="B92" s="21" t="s">
+        <v>169</v>
+      </c>
+      <c r="C92" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93" s="21">
+        <v>92</v>
+      </c>
+      <c r="B93" s="21" t="s">
+        <v>170</v>
+      </c>
+      <c r="C93" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94" s="21">
+        <v>93</v>
+      </c>
+      <c r="B94" s="21" t="s">
+        <v>171</v>
+      </c>
+      <c r="C94" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95" s="21">
+        <v>94</v>
+      </c>
+      <c r="B95" s="21" t="s">
+        <v>172</v>
+      </c>
+      <c r="C95" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96" s="21">
+        <v>95</v>
+      </c>
+      <c r="B96" s="21" t="s">
+        <v>173</v>
+      </c>
+      <c r="C96" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97" s="21">
+        <v>96</v>
+      </c>
+      <c r="B97" s="21" t="s">
+        <v>174</v>
+      </c>
+      <c r="C97" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98" s="21">
+        <v>97</v>
+      </c>
+      <c r="B98" s="21" t="s">
+        <v>175</v>
+      </c>
+      <c r="C98" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99" s="21">
+        <v>98</v>
+      </c>
+      <c r="B99" s="21" t="s">
+        <v>176</v>
+      </c>
+      <c r="C99" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100" s="21">
+        <v>99</v>
+      </c>
+      <c r="B100" s="21" t="s">
+        <v>177</v>
+      </c>
+      <c r="C100" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101" s="21">
+        <v>100</v>
+      </c>
+      <c r="B101" s="21" t="s">
+        <v>178</v>
+      </c>
+      <c r="C101" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102" s="21">
+        <v>101</v>
+      </c>
+      <c r="B102" s="21" t="s">
+        <v>179</v>
+      </c>
+      <c r="C102" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A103" s="21">
+        <v>102</v>
+      </c>
+      <c r="B103" s="21" t="s">
+        <v>180</v>
+      </c>
+      <c r="C103" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A104" s="21">
+        <v>103</v>
+      </c>
+      <c r="B104" s="21" t="s">
+        <v>181</v>
+      </c>
+      <c r="C104" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A105" s="21">
+        <v>104</v>
+      </c>
+      <c r="B105" s="21" t="s">
+        <v>182</v>
+      </c>
+      <c r="C105" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A106" s="21">
+        <v>105</v>
+      </c>
+      <c r="B106" s="21" t="s">
+        <v>183</v>
+      </c>
+      <c r="C106" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A107" s="21">
+        <v>106</v>
+      </c>
+      <c r="B107" s="21" t="s">
+        <v>184</v>
+      </c>
+      <c r="C107" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A108" s="21">
+        <v>107</v>
+      </c>
+      <c r="B108" s="21" t="s">
+        <v>185</v>
+      </c>
+      <c r="C108" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A109" s="21">
+        <v>108</v>
+      </c>
+      <c r="B109" s="21" t="s">
+        <v>186</v>
+      </c>
+      <c r="C109" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A110" s="21">
+        <v>109</v>
+      </c>
+      <c r="B110" s="21" t="s">
+        <v>187</v>
+      </c>
+      <c r="C110" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A111" s="21">
+        <v>110</v>
+      </c>
+      <c r="B111" s="21" t="s">
+        <v>188</v>
+      </c>
+      <c r="C111" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A112" s="21">
+        <v>111</v>
+      </c>
+      <c r="B112" s="21" t="s">
+        <v>189</v>
+      </c>
+      <c r="C112" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A113" s="21">
+        <v>112</v>
+      </c>
+      <c r="B113" s="21" t="s">
+        <v>190</v>
+      </c>
+      <c r="C113" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A114" s="21">
+        <v>113</v>
+      </c>
+      <c r="B114" s="21" t="s">
+        <v>191</v>
+      </c>
+      <c r="C114" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A115" s="21">
+        <v>114</v>
+      </c>
+      <c r="B115" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="C115" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A116" s="21">
+        <v>115</v>
+      </c>
+      <c r="B116" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="C116" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A117" s="21">
+        <v>116</v>
+      </c>
+      <c r="B117" s="21" t="s">
+        <v>192</v>
+      </c>
+      <c r="C117" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A118" s="21">
+        <v>117</v>
+      </c>
+      <c r="B118" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="C118" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A119" s="21">
+        <v>118</v>
+      </c>
+      <c r="B119" s="21" t="s">
+        <v>220</v>
+      </c>
+      <c r="C119" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A120" s="21">
+        <v>119</v>
+      </c>
+      <c r="B120" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="C120" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A121" s="21">
+        <v>120</v>
+      </c>
+      <c r="B121" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="C121" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A122" s="21">
+        <v>121</v>
+      </c>
+      <c r="B122" s="21" t="s">
+        <v>193</v>
+      </c>
+      <c r="C122" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A123" s="21">
+        <v>122</v>
+      </c>
+      <c r="B123" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="C123" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A124" s="21">
+        <v>123</v>
+      </c>
+      <c r="B124" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="C124" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A125" s="21">
+        <v>124</v>
+      </c>
+      <c r="B125" s="21" t="s">
+        <v>195</v>
+      </c>
+      <c r="C125" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A126" s="21">
+        <v>125</v>
+      </c>
+      <c r="B126" s="21" t="s">
+        <v>196</v>
+      </c>
+      <c r="C126" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A127" s="21">
+        <v>126</v>
+      </c>
+      <c r="B127" s="21" t="s">
+        <v>197</v>
+      </c>
+      <c r="C127" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A128" s="21">
+        <v>127</v>
+      </c>
+      <c r="B128" s="21" t="s">
+        <v>198</v>
+      </c>
+      <c r="C128" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A129" s="21">
+        <v>128</v>
+      </c>
+      <c r="B129" s="21" t="s">
+        <v>199</v>
+      </c>
+      <c r="C129" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A130" s="21">
+        <v>129</v>
+      </c>
+      <c r="B130" s="21" t="s">
+        <v>200</v>
+      </c>
+      <c r="C130" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A131" s="21">
+        <v>130</v>
+      </c>
+      <c r="B131" s="21" t="s">
+        <v>201</v>
+      </c>
+      <c r="C131" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A132" s="21">
+        <v>131</v>
+      </c>
+      <c r="B132" s="21" t="s">
+        <v>202</v>
+      </c>
+      <c r="C132" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A133" s="21">
+        <v>132</v>
+      </c>
+      <c r="B133" s="21" t="s">
+        <v>203</v>
+      </c>
+      <c r="C133" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A134" s="21">
+        <v>133</v>
+      </c>
+      <c r="B134" s="21" t="s">
+        <v>204</v>
+      </c>
+      <c r="C134" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A135" s="21">
+        <v>134</v>
+      </c>
+      <c r="B135" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="C135" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A136" s="21">
+        <v>135</v>
+      </c>
+      <c r="B136" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="C136" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A137" s="21">
+        <v>136</v>
+      </c>
+      <c r="B137" s="21" t="s">
+        <v>205</v>
+      </c>
+      <c r="C137" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A138" s="21">
+        <v>137</v>
+      </c>
+      <c r="B138" s="21" t="s">
+        <v>206</v>
+      </c>
+      <c r="C138" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A139" s="21">
+        <v>138</v>
+      </c>
+      <c r="B139" s="21" t="s">
+        <v>207</v>
+      </c>
+      <c r="C139" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A140" s="21">
+        <v>139</v>
+      </c>
+      <c r="B140" s="21" t="s">
+        <v>208</v>
+      </c>
+      <c r="C140" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A141" s="21">
+        <v>140</v>
+      </c>
+      <c r="B141" s="21" t="s">
+        <v>221</v>
+      </c>
+      <c r="C141" s="22">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/India Supply Use Table SUT_12-13.xlsx
+++ b/India Supply Use Table SUT_12-13.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wb305167\Documents\python\VAT-Gap\VAT-Gap-Model\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Desktop\VAT GAP\VAT-Gap-Model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA7AF895-03E5-44D9-954A-399F55AE10C4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8490" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8490" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="supply 2012-13" sheetId="1" r:id="rId1"/>
     <sheet name="use 2012-13" sheetId="9" r:id="rId2"/>
     <sheet name="rates" sheetId="10" r:id="rId3"/>
     <sheet name="cess_rates" sheetId="11" r:id="rId4"/>
+    <sheet name="exempt" sheetId="12" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'supply 2012-13'!$A$3:$CB$147</definedName>
@@ -28,7 +28,7 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'supply 2012-13'!$A:$B,'supply 2012-13'!$1:$3</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">'use 2012-13'!$A:$B,'use 2012-13'!$1:$3</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -40,12 +40,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Lenovo</author>
   </authors>
   <commentList>
-    <comment ref="BT97" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="BT97" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -74,12 +74,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Lenovo</author>
   </authors>
   <commentList>
-    <comment ref="BW114" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
+    <comment ref="BW114" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -108,7 +108,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="737" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="880" uniqueCount="239">
   <si>
     <t>Value in Rs Lakh</t>
   </si>
@@ -823,16 +823,19 @@
   <si>
     <t>cess_rates</t>
   </si>
+  <si>
+    <t>exempt</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="0_)"/>
-    <numFmt numFmtId="165" formatCode="0.0"/>
-    <numFmt numFmtId="166" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
+    <numFmt numFmtId="166" formatCode="0.0"/>
   </numFmts>
   <fonts count="16" x14ac:knownFonts="1">
     <font>
@@ -979,7 +982,7 @@
   </borders>
   <cellStyleXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
@@ -987,16 +990,16 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -1008,7 +1011,7 @@
     <xf numFmtId="1" fontId="11" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1020,10 +1023,10 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
@@ -1044,23 +1047,29 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="15">
-    <cellStyle name="Comma 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
-    <cellStyle name="Comma 3" xfId="14" xr:uid="{00000000-0005-0000-0000-00003C000000}"/>
+    <cellStyle name="Comma 2" xfId="1"/>
+    <cellStyle name="Comma 3" xfId="14"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 12 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="Normal 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
-    <cellStyle name="Normal 2 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
-    <cellStyle name="Normal 2 3" xfId="5" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
-    <cellStyle name="Normal 3" xfId="6" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
-    <cellStyle name="Normal 3 2" xfId="7" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
-    <cellStyle name="Normal 4" xfId="8" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
-    <cellStyle name="Normal 4 2" xfId="9" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
-    <cellStyle name="Normal 5" xfId="10" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
-    <cellStyle name="Normal 5 2" xfId="11" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
-    <cellStyle name="Percent 2" xfId="12" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
-    <cellStyle name="s73" xfId="13" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
+    <cellStyle name="Normal 12 2" xfId="2"/>
+    <cellStyle name="Normal 2" xfId="3"/>
+    <cellStyle name="Normal 2 2" xfId="4"/>
+    <cellStyle name="Normal 2 3" xfId="5"/>
+    <cellStyle name="Normal 3" xfId="6"/>
+    <cellStyle name="Normal 3 2" xfId="7"/>
+    <cellStyle name="Normal 4" xfId="8"/>
+    <cellStyle name="Normal 4 2" xfId="9"/>
+    <cellStyle name="Normal 5" xfId="10"/>
+    <cellStyle name="Normal 5 2" xfId="11"/>
+    <cellStyle name="Percent 2" xfId="12"/>
+    <cellStyle name="s73" xfId="13"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1151,23 +1160,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1203,23 +1195,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1395,15 +1370,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CE145"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C37" activePane="bottomRight" state="frozen"/>
       <selection activeCell="BQ149" sqref="BQ149"/>
       <selection pane="topRight" activeCell="BQ149" sqref="BQ149"/>
       <selection pane="bottomLeft" activeCell="BQ149" sqref="BQ149"/>
-      <selection pane="bottomRight" activeCell="B3" sqref="B3"/>
+      <selection pane="bottomRight" activeCell="A51" sqref="A51:XFD51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22081,7 +22056,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:CB147" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A3:CB147"/>
   <pageMargins left="0.15748031496062992" right="0.15748031496062992" top="0.27559055118110237" bottom="0.23622047244094491" header="0.31496062992125984" footer="0.23622047244094491"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
@@ -22089,11 +22064,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CB152"/>
   <sheetViews>
     <sheetView zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="BN4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection activeCell="BQ149" sqref="BQ149"/>
       <selection pane="topRight" activeCell="BQ149" sqref="BQ149"/>
       <selection pane="bottomLeft" activeCell="BQ149" sqref="BQ149"/>
@@ -55992,7 +55967,7 @@
       <c r="BY152" s="5"/>
     </row>
   </sheetData>
-  <autoFilter ref="A3:BY146" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
+  <autoFilter ref="A3:BY146"/>
   <pageMargins left="0.17" right="0.17" top="0.24" bottom="0.24" header="0.31496062992125984" footer="0.24"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
@@ -56000,7 +55975,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8D5CBD9-2CA9-455B-B19F-20052C58F7B6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D141"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -57574,10 +57549,10 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9294B521-AC8C-436A-A976-E4547F3227D2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C141"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -59140,4 +59115,1575 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C141"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="6" style="21" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" style="21" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" style="24" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="21" t="s">
+        <v>236</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>235</v>
+      </c>
+      <c r="C1" s="23" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="21">
+        <v>1</v>
+      </c>
+      <c r="B2" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="C2" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="21">
+        <v>2</v>
+      </c>
+      <c r="B3" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="C3" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="21">
+        <v>3</v>
+      </c>
+      <c r="B4" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="C4" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="21">
+        <v>4</v>
+      </c>
+      <c r="B5" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="C5" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="21">
+        <v>5</v>
+      </c>
+      <c r="B6" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="C6" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="21">
+        <v>6</v>
+      </c>
+      <c r="B7" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="C7" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="21">
+        <v>7</v>
+      </c>
+      <c r="B8" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="C8" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="21">
+        <v>8</v>
+      </c>
+      <c r="B9" s="21" t="s">
+        <v>87</v>
+      </c>
+      <c r="C9" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="21">
+        <v>9</v>
+      </c>
+      <c r="B10" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="C10" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="21">
+        <v>10</v>
+      </c>
+      <c r="B11" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="C11" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="21">
+        <v>11</v>
+      </c>
+      <c r="B12" s="21" t="s">
+        <v>90</v>
+      </c>
+      <c r="C12" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="21">
+        <v>12</v>
+      </c>
+      <c r="B13" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="C13" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="21">
+        <v>13</v>
+      </c>
+      <c r="B14" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="C14" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="21">
+        <v>14</v>
+      </c>
+      <c r="B15" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="C15" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="21">
+        <v>15</v>
+      </c>
+      <c r="B16" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="C16" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="21">
+        <v>16</v>
+      </c>
+      <c r="B17" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="C17" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="21">
+        <v>17</v>
+      </c>
+      <c r="B18" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="C18" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="21">
+        <v>18</v>
+      </c>
+      <c r="B19" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="C19" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="21">
+        <v>19</v>
+      </c>
+      <c r="B20" s="21" t="s">
+        <v>98</v>
+      </c>
+      <c r="C20" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="21">
+        <v>20</v>
+      </c>
+      <c r="B21" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="C21" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="21">
+        <v>21</v>
+      </c>
+      <c r="B22" s="21" t="s">
+        <v>100</v>
+      </c>
+      <c r="C22" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="21">
+        <v>22</v>
+      </c>
+      <c r="B23" s="21" t="s">
+        <v>101</v>
+      </c>
+      <c r="C23" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="21">
+        <v>23</v>
+      </c>
+      <c r="B24" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="C24" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="21">
+        <v>24</v>
+      </c>
+      <c r="B25" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="C25" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="21">
+        <v>25</v>
+      </c>
+      <c r="B26" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="C26" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="21">
+        <v>26</v>
+      </c>
+      <c r="B27" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="C27" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="21">
+        <v>27</v>
+      </c>
+      <c r="B28" s="21" t="s">
+        <v>106</v>
+      </c>
+      <c r="C28" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="21">
+        <v>28</v>
+      </c>
+      <c r="B29" s="21" t="s">
+        <v>107</v>
+      </c>
+      <c r="C29" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="21">
+        <v>29</v>
+      </c>
+      <c r="B30" s="21" t="s">
+        <v>108</v>
+      </c>
+      <c r="C30" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="21">
+        <v>30</v>
+      </c>
+      <c r="B31" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="C31" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="21">
+        <v>31</v>
+      </c>
+      <c r="B32" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="C32" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="21">
+        <v>32</v>
+      </c>
+      <c r="B33" s="21" t="s">
+        <v>110</v>
+      </c>
+      <c r="C33" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="21">
+        <v>33</v>
+      </c>
+      <c r="B34" s="21" t="s">
+        <v>111</v>
+      </c>
+      <c r="C34" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="21">
+        <v>34</v>
+      </c>
+      <c r="B35" s="21" t="s">
+        <v>112</v>
+      </c>
+      <c r="C35" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="21">
+        <v>35</v>
+      </c>
+      <c r="B36" s="21" t="s">
+        <v>113</v>
+      </c>
+      <c r="C36" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="21">
+        <v>36</v>
+      </c>
+      <c r="B37" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="C37" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="21">
+        <v>37</v>
+      </c>
+      <c r="B38" s="21" t="s">
+        <v>115</v>
+      </c>
+      <c r="C38" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="21">
+        <v>38</v>
+      </c>
+      <c r="B39" s="21" t="s">
+        <v>116</v>
+      </c>
+      <c r="C39" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="21">
+        <v>39</v>
+      </c>
+      <c r="B40" s="21" t="s">
+        <v>117</v>
+      </c>
+      <c r="C40" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="21">
+        <v>40</v>
+      </c>
+      <c r="B41" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="C41" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="21">
+        <v>41</v>
+      </c>
+      <c r="B42" s="21" t="s">
+        <v>119</v>
+      </c>
+      <c r="C42" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="21">
+        <v>42</v>
+      </c>
+      <c r="B43" s="21" t="s">
+        <v>120</v>
+      </c>
+      <c r="C43" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="21">
+        <v>43</v>
+      </c>
+      <c r="B44" s="21" t="s">
+        <v>121</v>
+      </c>
+      <c r="C44" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="21">
+        <v>44</v>
+      </c>
+      <c r="B45" s="21" t="s">
+        <v>122</v>
+      </c>
+      <c r="C45" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="21">
+        <v>45</v>
+      </c>
+      <c r="B46" s="21" t="s">
+        <v>123</v>
+      </c>
+      <c r="C46" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="21">
+        <v>46</v>
+      </c>
+      <c r="B47" s="21" t="s">
+        <v>124</v>
+      </c>
+      <c r="C47" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="21">
+        <v>47</v>
+      </c>
+      <c r="B48" s="21" t="s">
+        <v>125</v>
+      </c>
+      <c r="C48" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="21">
+        <v>48</v>
+      </c>
+      <c r="B49" s="21" t="s">
+        <v>126</v>
+      </c>
+      <c r="C49" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="21">
+        <v>49</v>
+      </c>
+      <c r="B50" s="21" t="s">
+        <v>127</v>
+      </c>
+      <c r="C50" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="21">
+        <v>50</v>
+      </c>
+      <c r="B51" s="21" t="s">
+        <v>128</v>
+      </c>
+      <c r="C51" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="21">
+        <v>51</v>
+      </c>
+      <c r="B52" s="21" t="s">
+        <v>129</v>
+      </c>
+      <c r="C52" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="21">
+        <v>52</v>
+      </c>
+      <c r="B53" s="21" t="s">
+        <v>130</v>
+      </c>
+      <c r="C53" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="21">
+        <v>53</v>
+      </c>
+      <c r="B54" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="C54" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="21">
+        <v>54</v>
+      </c>
+      <c r="B55" s="21" t="s">
+        <v>132</v>
+      </c>
+      <c r="C55" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="21">
+        <v>55</v>
+      </c>
+      <c r="B56" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="C56" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="21">
+        <v>56</v>
+      </c>
+      <c r="B57" s="21" t="s">
+        <v>134</v>
+      </c>
+      <c r="C57" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" s="21">
+        <v>57</v>
+      </c>
+      <c r="B58" s="21" t="s">
+        <v>135</v>
+      </c>
+      <c r="C58" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" s="21">
+        <v>58</v>
+      </c>
+      <c r="B59" s="21" t="s">
+        <v>136</v>
+      </c>
+      <c r="C59" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" s="21">
+        <v>59</v>
+      </c>
+      <c r="B60" s="21" t="s">
+        <v>137</v>
+      </c>
+      <c r="C60" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" s="21">
+        <v>60</v>
+      </c>
+      <c r="B61" s="21" t="s">
+        <v>138</v>
+      </c>
+      <c r="C61" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" s="21">
+        <v>61</v>
+      </c>
+      <c r="B62" s="21" t="s">
+        <v>139</v>
+      </c>
+      <c r="C62" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" s="21">
+        <v>62</v>
+      </c>
+      <c r="B63" s="21" t="s">
+        <v>140</v>
+      </c>
+      <c r="C63" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" s="21">
+        <v>63</v>
+      </c>
+      <c r="B64" s="21" t="s">
+        <v>141</v>
+      </c>
+      <c r="C64" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" s="21">
+        <v>64</v>
+      </c>
+      <c r="B65" s="21" t="s">
+        <v>142</v>
+      </c>
+      <c r="C65" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" s="21">
+        <v>65</v>
+      </c>
+      <c r="B66" s="21" t="s">
+        <v>143</v>
+      </c>
+      <c r="C66" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" s="21">
+        <v>66</v>
+      </c>
+      <c r="B67" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="C67" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" s="21">
+        <v>67</v>
+      </c>
+      <c r="B68" s="21" t="s">
+        <v>145</v>
+      </c>
+      <c r="C68" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" s="21">
+        <v>68</v>
+      </c>
+      <c r="B69" s="21" t="s">
+        <v>146</v>
+      </c>
+      <c r="C69" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" s="21">
+        <v>69</v>
+      </c>
+      <c r="B70" s="21" t="s">
+        <v>147</v>
+      </c>
+      <c r="C70" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" s="21">
+        <v>70</v>
+      </c>
+      <c r="B71" s="21" t="s">
+        <v>148</v>
+      </c>
+      <c r="C71" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" s="21">
+        <v>71</v>
+      </c>
+      <c r="B72" s="21" t="s">
+        <v>149</v>
+      </c>
+      <c r="C72" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" s="21">
+        <v>72</v>
+      </c>
+      <c r="B73" s="21" t="s">
+        <v>150</v>
+      </c>
+      <c r="C73" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" s="21">
+        <v>73</v>
+      </c>
+      <c r="B74" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="C74" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" s="21">
+        <v>74</v>
+      </c>
+      <c r="B75" s="21" t="s">
+        <v>152</v>
+      </c>
+      <c r="C75" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" s="21">
+        <v>75</v>
+      </c>
+      <c r="B76" s="21" t="s">
+        <v>153</v>
+      </c>
+      <c r="C76" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" s="21">
+        <v>76</v>
+      </c>
+      <c r="B77" s="21" t="s">
+        <v>154</v>
+      </c>
+      <c r="C77" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" s="21">
+        <v>77</v>
+      </c>
+      <c r="B78" s="21" t="s">
+        <v>155</v>
+      </c>
+      <c r="C78" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" s="21">
+        <v>78</v>
+      </c>
+      <c r="B79" s="21" t="s">
+        <v>156</v>
+      </c>
+      <c r="C79" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" s="21">
+        <v>79</v>
+      </c>
+      <c r="B80" s="21" t="s">
+        <v>157</v>
+      </c>
+      <c r="C80" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" s="21">
+        <v>80</v>
+      </c>
+      <c r="B81" s="21" t="s">
+        <v>158</v>
+      </c>
+      <c r="C81" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" s="21">
+        <v>81</v>
+      </c>
+      <c r="B82" s="21" t="s">
+        <v>159</v>
+      </c>
+      <c r="C82" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" s="21">
+        <v>82</v>
+      </c>
+      <c r="B83" s="21" t="s">
+        <v>160</v>
+      </c>
+      <c r="C83" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" s="21">
+        <v>83</v>
+      </c>
+      <c r="B84" s="21" t="s">
+        <v>161</v>
+      </c>
+      <c r="C84" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" s="21">
+        <v>84</v>
+      </c>
+      <c r="B85" s="21" t="s">
+        <v>162</v>
+      </c>
+      <c r="C85" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" s="21">
+        <v>85</v>
+      </c>
+      <c r="B86" s="21" t="s">
+        <v>163</v>
+      </c>
+      <c r="C86" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" s="21">
+        <v>86</v>
+      </c>
+      <c r="B87" s="21" t="s">
+        <v>164</v>
+      </c>
+      <c r="C87" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" s="21">
+        <v>87</v>
+      </c>
+      <c r="B88" s="21" t="s">
+        <v>165</v>
+      </c>
+      <c r="C88" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" s="21">
+        <v>88</v>
+      </c>
+      <c r="B89" s="21" t="s">
+        <v>166</v>
+      </c>
+      <c r="C89" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" s="21">
+        <v>89</v>
+      </c>
+      <c r="B90" s="21" t="s">
+        <v>167</v>
+      </c>
+      <c r="C90" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" s="21">
+        <v>90</v>
+      </c>
+      <c r="B91" s="21" t="s">
+        <v>168</v>
+      </c>
+      <c r="C91" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92" s="21">
+        <v>91</v>
+      </c>
+      <c r="B92" s="21" t="s">
+        <v>169</v>
+      </c>
+      <c r="C92" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93" s="21">
+        <v>92</v>
+      </c>
+      <c r="B93" s="21" t="s">
+        <v>170</v>
+      </c>
+      <c r="C93" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94" s="21">
+        <v>93</v>
+      </c>
+      <c r="B94" s="21" t="s">
+        <v>171</v>
+      </c>
+      <c r="C94" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95" s="21">
+        <v>94</v>
+      </c>
+      <c r="B95" s="21" t="s">
+        <v>172</v>
+      </c>
+      <c r="C95" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96" s="21">
+        <v>95</v>
+      </c>
+      <c r="B96" s="21" t="s">
+        <v>173</v>
+      </c>
+      <c r="C96" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97" s="21">
+        <v>96</v>
+      </c>
+      <c r="B97" s="21" t="s">
+        <v>174</v>
+      </c>
+      <c r="C97" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98" s="21">
+        <v>97</v>
+      </c>
+      <c r="B98" s="21" t="s">
+        <v>175</v>
+      </c>
+      <c r="C98" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99" s="21">
+        <v>98</v>
+      </c>
+      <c r="B99" s="21" t="s">
+        <v>176</v>
+      </c>
+      <c r="C99" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100" s="21">
+        <v>99</v>
+      </c>
+      <c r="B100" s="21" t="s">
+        <v>177</v>
+      </c>
+      <c r="C100" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101" s="21">
+        <v>100</v>
+      </c>
+      <c r="B101" s="21" t="s">
+        <v>178</v>
+      </c>
+      <c r="C101" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102" s="21">
+        <v>101</v>
+      </c>
+      <c r="B102" s="21" t="s">
+        <v>179</v>
+      </c>
+      <c r="C102" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A103" s="21">
+        <v>102</v>
+      </c>
+      <c r="B103" s="21" t="s">
+        <v>180</v>
+      </c>
+      <c r="C103" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A104" s="21">
+        <v>103</v>
+      </c>
+      <c r="B104" s="21" t="s">
+        <v>181</v>
+      </c>
+      <c r="C104" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A105" s="21">
+        <v>104</v>
+      </c>
+      <c r="B105" s="21" t="s">
+        <v>182</v>
+      </c>
+      <c r="C105" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A106" s="21">
+        <v>105</v>
+      </c>
+      <c r="B106" s="21" t="s">
+        <v>183</v>
+      </c>
+      <c r="C106" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A107" s="21">
+        <v>106</v>
+      </c>
+      <c r="B107" s="21" t="s">
+        <v>184</v>
+      </c>
+      <c r="C107" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A108" s="21">
+        <v>107</v>
+      </c>
+      <c r="B108" s="21" t="s">
+        <v>185</v>
+      </c>
+      <c r="C108" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A109" s="21">
+        <v>108</v>
+      </c>
+      <c r="B109" s="21" t="s">
+        <v>186</v>
+      </c>
+      <c r="C109" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A110" s="21">
+        <v>109</v>
+      </c>
+      <c r="B110" s="21" t="s">
+        <v>187</v>
+      </c>
+      <c r="C110" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A111" s="21">
+        <v>110</v>
+      </c>
+      <c r="B111" s="21" t="s">
+        <v>188</v>
+      </c>
+      <c r="C111" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A112" s="21">
+        <v>111</v>
+      </c>
+      <c r="B112" s="21" t="s">
+        <v>189</v>
+      </c>
+      <c r="C112" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A113" s="21">
+        <v>112</v>
+      </c>
+      <c r="B113" s="21" t="s">
+        <v>190</v>
+      </c>
+      <c r="C113" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A114" s="21">
+        <v>113</v>
+      </c>
+      <c r="B114" s="21" t="s">
+        <v>191</v>
+      </c>
+      <c r="C114" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A115" s="21">
+        <v>114</v>
+      </c>
+      <c r="B115" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="C115" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A116" s="21">
+        <v>115</v>
+      </c>
+      <c r="B116" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="C116" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A117" s="21">
+        <v>116</v>
+      </c>
+      <c r="B117" s="21" t="s">
+        <v>192</v>
+      </c>
+      <c r="C117" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A118" s="21">
+        <v>117</v>
+      </c>
+      <c r="B118" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="C118" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A119" s="21">
+        <v>118</v>
+      </c>
+      <c r="B119" s="21" t="s">
+        <v>220</v>
+      </c>
+      <c r="C119" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A120" s="21">
+        <v>119</v>
+      </c>
+      <c r="B120" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="C120" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A121" s="21">
+        <v>120</v>
+      </c>
+      <c r="B121" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="C121" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A122" s="21">
+        <v>121</v>
+      </c>
+      <c r="B122" s="21" t="s">
+        <v>193</v>
+      </c>
+      <c r="C122" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A123" s="21">
+        <v>122</v>
+      </c>
+      <c r="B123" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="C123" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A124" s="21">
+        <v>123</v>
+      </c>
+      <c r="B124" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="C124" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A125" s="21">
+        <v>124</v>
+      </c>
+      <c r="B125" s="21" t="s">
+        <v>195</v>
+      </c>
+      <c r="C125" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A126" s="21">
+        <v>125</v>
+      </c>
+      <c r="B126" s="21" t="s">
+        <v>196</v>
+      </c>
+      <c r="C126" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A127" s="21">
+        <v>126</v>
+      </c>
+      <c r="B127" s="21" t="s">
+        <v>197</v>
+      </c>
+      <c r="C127" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A128" s="21">
+        <v>127</v>
+      </c>
+      <c r="B128" s="21" t="s">
+        <v>198</v>
+      </c>
+      <c r="C128" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A129" s="21">
+        <v>128</v>
+      </c>
+      <c r="B129" s="21" t="s">
+        <v>199</v>
+      </c>
+      <c r="C129" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A130" s="21">
+        <v>129</v>
+      </c>
+      <c r="B130" s="21" t="s">
+        <v>200</v>
+      </c>
+      <c r="C130" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A131" s="21">
+        <v>130</v>
+      </c>
+      <c r="B131" s="21" t="s">
+        <v>201</v>
+      </c>
+      <c r="C131" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A132" s="21">
+        <v>131</v>
+      </c>
+      <c r="B132" s="21" t="s">
+        <v>202</v>
+      </c>
+      <c r="C132" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A133" s="21">
+        <v>132</v>
+      </c>
+      <c r="B133" s="21" t="s">
+        <v>203</v>
+      </c>
+      <c r="C133" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A134" s="21">
+        <v>133</v>
+      </c>
+      <c r="B134" s="21" t="s">
+        <v>204</v>
+      </c>
+      <c r="C134" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A135" s="21">
+        <v>134</v>
+      </c>
+      <c r="B135" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="C135" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A136" s="21">
+        <v>135</v>
+      </c>
+      <c r="B136" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="C136" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A137" s="21">
+        <v>136</v>
+      </c>
+      <c r="B137" s="21" t="s">
+        <v>205</v>
+      </c>
+      <c r="C137" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A138" s="21">
+        <v>137</v>
+      </c>
+      <c r="B138" s="21" t="s">
+        <v>206</v>
+      </c>
+      <c r="C138" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A139" s="21">
+        <v>138</v>
+      </c>
+      <c r="B139" s="21" t="s">
+        <v>207</v>
+      </c>
+      <c r="C139" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A140" s="21">
+        <v>139</v>
+      </c>
+      <c r="B140" s="21" t="s">
+        <v>208</v>
+      </c>
+      <c r="C140" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A141" s="21">
+        <v>140</v>
+      </c>
+      <c r="B141" s="21" t="s">
+        <v>221</v>
+      </c>
+      <c r="C141" s="22">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/India Supply Use Table SUT_12-13.xlsx
+++ b/India Supply Use Table SUT_12-13.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Desktop\VAT GAP\VAT-Gap-Model\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8490" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="8490"/>
   </bookViews>
   <sheets>
     <sheet name="supply 2012-13" sheetId="1" r:id="rId1"/>
@@ -28,7 +23,8 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'supply 2012-13'!$A:$B,'supply 2012-13'!$1:$3</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">'use 2012-13'!$A:$B,'use 2012-13'!$1:$3</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="124519"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -37,74 +33,6 @@
     </ext>
   </extLst>
 </workbook>
-</file>
-
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>Lenovo</author>
-  </authors>
-  <commentList>
-    <comment ref="BT97" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Lenovo:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-discrepancy adjusted in this item</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>Lenovo</author>
-  </authors>
-  <commentList>
-    <comment ref="BW114" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Lenovo:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-discrepancy adjusted in this item</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -830,14 +758,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="165" formatCode="0_)"/>
     <numFmt numFmtId="166" formatCode="0.0"/>
   </numFmts>
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -857,19 +785,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="8"/>
@@ -982,22 +897,22 @@
   </borders>
   <cellStyleXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1005,49 +920,49 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="10" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="8" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="11" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="9" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="1" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -1127,7 +1042,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1159,10 +1074,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1194,7 +1108,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1370,18 +1283,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:CE145"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C37" activePane="bottomRight" state="frozen"/>
       <selection activeCell="BQ149" sqref="BQ149"/>
       <selection pane="topRight" activeCell="BQ149" sqref="BQ149"/>
       <selection pane="bottomLeft" activeCell="BQ149" sqref="BQ149"/>
-      <selection pane="bottomRight" activeCell="A51" sqref="A51:XFD51"/>
+      <selection pane="bottomRight" activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="6" style="6" customWidth="1"/>
     <col min="2" max="2" width="14.28515625" style="6" customWidth="1"/>
@@ -1443,7 +1356,7 @@
     <col min="84" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:83" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:83" s="6" customFormat="1">
       <c r="B1" s="6" t="s">
         <v>225</v>
       </c>
@@ -1463,7 +1376,7 @@
       <c r="CD1" s="8"/>
       <c r="CE1" s="8"/>
     </row>
-    <row r="2" spans="1:83" s="6" customFormat="1" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:83" s="6" customFormat="1" ht="80.25" customHeight="1">
       <c r="C2" s="8" t="s">
         <v>1</v>
       </c>
@@ -1700,7 +1613,7 @@
       <c r="CD2" s="8"/>
       <c r="CE2" s="8"/>
     </row>
-    <row r="3" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:83">
       <c r="A3" s="6" t="s">
         <v>78</v>
       </c>
@@ -1906,7 +1819,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="4" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:83">
       <c r="A4" s="6">
         <v>1</v>
       </c>
@@ -2046,7 +1959,7 @@
         <v>21570150.872445129</v>
       </c>
     </row>
-    <row r="5" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:83">
       <c r="A5" s="6">
         <v>2</v>
       </c>
@@ -2186,7 +2099,7 @@
         <v>13183784.257866079</v>
       </c>
     </row>
-    <row r="6" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:83">
       <c r="A6" s="6">
         <v>3</v>
       </c>
@@ -2326,7 +2239,7 @@
         <v>6541294.4026332106</v>
       </c>
     </row>
-    <row r="7" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:83">
       <c r="A7" s="6">
         <v>4</v>
       </c>
@@ -2463,7 +2376,7 @@
         <v>3156512.0016624569</v>
       </c>
     </row>
-    <row r="8" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:83">
       <c r="A8" s="6">
         <v>5</v>
       </c>
@@ -2600,7 +2513,7 @@
         <v>1418315.638028383</v>
       </c>
     </row>
-    <row r="9" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:83">
       <c r="A9" s="6">
         <v>6</v>
       </c>
@@ -2737,7 +2650,7 @@
         <v>2787110.8531326209</v>
       </c>
     </row>
-    <row r="10" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:83">
       <c r="A10" s="6">
         <v>7</v>
       </c>
@@ -2877,7 +2790,7 @@
         <v>2185078.8497251286</v>
       </c>
     </row>
-    <row r="11" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:83">
       <c r="A11" s="6">
         <v>8</v>
       </c>
@@ -3017,7 +2930,7 @@
         <v>3630882.6821917314</v>
       </c>
     </row>
-    <row r="12" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:83">
       <c r="A12" s="6">
         <v>9</v>
       </c>
@@ -3157,7 +3070,7 @@
         <v>7096969.4649780914</v>
       </c>
     </row>
-    <row r="13" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:83">
       <c r="A13" s="6">
         <v>10</v>
       </c>
@@ -3291,7 +3204,7 @@
         <v>8670300.212203756</v>
       </c>
     </row>
-    <row r="14" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:83">
       <c r="A14" s="6">
         <v>11</v>
       </c>
@@ -3431,7 +3344,7 @@
         <v>792056.98271943617</v>
       </c>
     </row>
-    <row r="15" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:83">
       <c r="A15" s="6">
         <v>12</v>
       </c>
@@ -3568,7 +3481,7 @@
         <v>11133030.518696371</v>
       </c>
     </row>
-    <row r="16" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:83">
       <c r="A16" s="6">
         <v>13</v>
       </c>
@@ -3708,7 +3621,7 @@
         <v>1313637.746550659</v>
       </c>
     </row>
-    <row r="17" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:79">
       <c r="A17" s="6">
         <v>14</v>
       </c>
@@ -3845,7 +3758,7 @@
         <v>1006577.520848857</v>
       </c>
     </row>
-    <row r="18" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:79">
       <c r="A18" s="6">
         <v>15</v>
       </c>
@@ -3982,7 +3895,7 @@
         <v>1235177.7870228235</v>
       </c>
     </row>
-    <row r="19" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:79">
       <c r="A19" s="6">
         <v>16</v>
       </c>
@@ -4122,7 +4035,7 @@
         <v>987532.1472606496</v>
       </c>
     </row>
-    <row r="20" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:79">
       <c r="A20" s="6">
         <v>17</v>
       </c>
@@ -4259,7 +4172,7 @@
         <v>2027096.5586207642</v>
       </c>
     </row>
-    <row r="21" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:79">
       <c r="A21" s="6">
         <v>18</v>
       </c>
@@ -4399,7 +4312,7 @@
         <v>19730098.628945369</v>
       </c>
     </row>
-    <row r="22" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:79">
       <c r="A22" s="6">
         <v>19</v>
       </c>
@@ -4539,7 +4452,7 @@
         <v>28761279.585592598</v>
       </c>
     </row>
-    <row r="23" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:79">
       <c r="A23" s="6">
         <v>20</v>
       </c>
@@ -4679,7 +4592,7 @@
         <v>23847083.763854049</v>
       </c>
     </row>
-    <row r="24" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:79">
       <c r="A24" s="6">
         <v>21</v>
       </c>
@@ -4816,7 +4729,7 @@
         <v>45097386.959670737</v>
       </c>
     </row>
-    <row r="25" spans="1:79" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:79" ht="15.75">
       <c r="A25" s="6">
         <v>22</v>
       </c>
@@ -4954,7 +4867,7 @@
         <v>63722.092687185948</v>
       </c>
     </row>
-    <row r="26" spans="1:79" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:79" ht="15.75">
       <c r="A26" s="6">
         <v>23</v>
       </c>
@@ -5095,7 +5008,7 @@
         <v>8433730.3616136182</v>
       </c>
     </row>
-    <row r="27" spans="1:79" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:79" ht="15.75">
       <c r="A27" s="6">
         <v>24</v>
       </c>
@@ -5236,7 +5149,7 @@
         <v>14842172.676513651</v>
       </c>
     </row>
-    <row r="28" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:79">
       <c r="A28" s="6">
         <v>25</v>
       </c>
@@ -5373,7 +5286,7 @@
         <v>10350761.91625982</v>
       </c>
     </row>
-    <row r="29" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:79">
       <c r="A29" s="6">
         <v>26</v>
       </c>
@@ -5513,7 +5426,7 @@
         <v>6824393.288982572</v>
       </c>
     </row>
-    <row r="30" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:79">
       <c r="A30" s="6">
         <v>27</v>
       </c>
@@ -5653,7 +5566,7 @@
         <v>5261459.576468017</v>
       </c>
     </row>
-    <row r="31" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:79">
       <c r="A31" s="6">
         <v>28</v>
       </c>
@@ -5793,7 +5706,7 @@
         <v>7317432.1759132985</v>
       </c>
     </row>
-    <row r="32" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:79">
       <c r="A32" s="6">
         <v>29</v>
       </c>
@@ -5930,7 +5843,7 @@
         <v>5349567.6234185621</v>
       </c>
     </row>
-    <row r="33" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:79">
       <c r="A33" s="6">
         <v>30</v>
       </c>
@@ -6085,7 +5998,7 @@
         <v>26381602.045046113</v>
       </c>
     </row>
-    <row r="34" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:79">
       <c r="A34" s="6">
         <v>31</v>
       </c>
@@ -6240,7 +6153,7 @@
         <v>8648766.3836870752</v>
       </c>
     </row>
-    <row r="35" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:79">
       <c r="A35" s="6">
         <v>32</v>
       </c>
@@ -6395,7 +6308,7 @@
         <v>98455937.277880147</v>
       </c>
     </row>
-    <row r="36" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:79">
       <c r="A36" s="6">
         <v>33</v>
       </c>
@@ -6550,7 +6463,7 @@
         <v>9199319.1575546972</v>
       </c>
     </row>
-    <row r="37" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:79">
       <c r="A37" s="6">
         <v>34</v>
       </c>
@@ -6705,7 +6618,7 @@
         <v>600371.17519435298</v>
       </c>
     </row>
-    <row r="38" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:79">
       <c r="A38" s="6">
         <v>35</v>
       </c>
@@ -6860,7 +6773,7 @@
         <v>214044.74732122582</v>
       </c>
     </row>
-    <row r="39" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:79">
       <c r="A39" s="6">
         <v>36</v>
       </c>
@@ -7015,7 +6928,7 @@
         <v>3281296.8591060536</v>
       </c>
     </row>
-    <row r="40" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:79">
       <c r="A40" s="6">
         <v>37</v>
       </c>
@@ -7170,7 +7083,7 @@
         <v>2020445.3733834964</v>
       </c>
     </row>
-    <row r="41" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:79">
       <c r="A41" s="6">
         <v>38</v>
       </c>
@@ -7325,7 +7238,7 @@
         <v>1394388.3794280835</v>
       </c>
     </row>
-    <row r="42" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:79">
       <c r="A42" s="6">
         <v>39</v>
       </c>
@@ -7476,7 +7389,7 @@
         <v>45503.361438135027</v>
       </c>
     </row>
-    <row r="43" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:79">
       <c r="A43" s="6">
         <v>40</v>
       </c>
@@ -7631,7 +7544,7 @@
         <v>15585505.154252637</v>
       </c>
     </row>
-    <row r="44" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:79">
       <c r="A44" s="6">
         <v>41</v>
       </c>
@@ -7768,7 +7681,7 @@
         <v>6922097.0606857212</v>
       </c>
     </row>
-    <row r="45" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:79">
       <c r="A45" s="6">
         <v>42</v>
       </c>
@@ -7905,7 +7818,7 @@
         <v>742854.81246786215</v>
       </c>
     </row>
-    <row r="46" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:79">
       <c r="A46" s="6">
         <v>43</v>
       </c>
@@ -8042,7 +7955,7 @@
         <v>2959869.7797090122</v>
       </c>
     </row>
-    <row r="47" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:79">
       <c r="A47" s="6">
         <v>44</v>
       </c>
@@ -8179,7 +8092,7 @@
         <v>4937848.3003296508</v>
       </c>
     </row>
-    <row r="48" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:79">
       <c r="A48" s="6">
         <v>45</v>
       </c>
@@ -8316,7 +8229,7 @@
         <v>18961824.072377756</v>
       </c>
     </row>
-    <row r="49" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:79">
       <c r="A49" s="6">
         <v>46</v>
       </c>
@@ -8453,7 +8366,7 @@
         <v>20056228.800075185</v>
       </c>
     </row>
-    <row r="50" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:79">
       <c r="A50" s="6">
         <v>47</v>
       </c>
@@ -8590,7 +8503,7 @@
         <v>27922140.54493567</v>
       </c>
     </row>
-    <row r="51" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:79">
       <c r="A51" s="6">
         <v>48</v>
       </c>
@@ -8727,7 +8640,7 @@
         <v>8748211.1607194599</v>
       </c>
     </row>
-    <row r="52" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:79">
       <c r="A52" s="6">
         <v>49</v>
       </c>
@@ -8864,7 +8777,7 @@
         <v>3823305.8184478027</v>
       </c>
     </row>
-    <row r="53" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:79">
       <c r="A53" s="6">
         <v>50</v>
       </c>
@@ -9001,7 +8914,7 @@
         <v>17690688.557302248</v>
       </c>
     </row>
-    <row r="54" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:79">
       <c r="A54" s="6">
         <v>51</v>
       </c>
@@ -9138,7 +9051,7 @@
         <v>6744222.6251007197</v>
       </c>
     </row>
-    <row r="55" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:79">
       <c r="A55" s="6">
         <v>52</v>
       </c>
@@ -9275,7 +9188,7 @@
         <v>2031842.3128451454</v>
       </c>
     </row>
-    <row r="56" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:79">
       <c r="A56" s="6">
         <v>53</v>
       </c>
@@ -9412,7 +9325,7 @@
         <v>3382435.2113701776</v>
       </c>
     </row>
-    <row r="57" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:79">
       <c r="A57" s="6">
         <v>54</v>
       </c>
@@ -9549,7 +9462,7 @@
         <v>573875.36815335311</v>
       </c>
     </row>
-    <row r="58" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:79">
       <c r="A58" s="6">
         <v>55</v>
       </c>
@@ -9686,7 +9599,7 @@
         <v>9143267.0740333609</v>
       </c>
     </row>
-    <row r="59" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:79">
       <c r="A59" s="6">
         <v>56</v>
       </c>
@@ -9823,7 +9736,7 @@
         <v>27316790.312335353</v>
       </c>
     </row>
-    <row r="60" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:79">
       <c r="A60" s="6">
         <v>57</v>
       </c>
@@ -9960,7 +9873,7 @@
         <v>20009035.583066154</v>
       </c>
     </row>
-    <row r="61" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:79">
       <c r="A61" s="6">
         <v>58</v>
       </c>
@@ -10097,7 +10010,7 @@
         <v>3643504.5955842496</v>
       </c>
     </row>
-    <row r="62" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:79">
       <c r="A62" s="6">
         <v>59</v>
       </c>
@@ -10234,7 +10147,7 @@
         <v>6586411.3265579706</v>
       </c>
     </row>
-    <row r="63" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:79">
       <c r="A63" s="6">
         <v>60</v>
       </c>
@@ -10371,7 +10284,7 @@
         <v>1321051.0031514105</v>
       </c>
     </row>
-    <row r="64" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:79">
       <c r="A64" s="6">
         <v>61</v>
       </c>
@@ -10508,7 +10421,7 @@
         <v>16619513.1076624</v>
       </c>
     </row>
-    <row r="65" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:79">
       <c r="A65" s="6">
         <v>62</v>
       </c>
@@ -10645,7 +10558,7 @@
         <v>9867537.2345058247</v>
       </c>
     </row>
-    <row r="66" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:79">
       <c r="A66" s="6">
         <v>63</v>
       </c>
@@ -10782,7 +10695,7 @@
         <v>4536542.6972053051</v>
       </c>
     </row>
-    <row r="67" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:79">
       <c r="A67" s="6">
         <v>64</v>
       </c>
@@ -10919,7 +10832,7 @@
         <v>3173553.5022522332</v>
       </c>
     </row>
-    <row r="68" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:79">
       <c r="A68" s="6">
         <v>65</v>
       </c>
@@ -11056,7 +10969,7 @@
         <v>8482859.898124449</v>
       </c>
     </row>
-    <row r="69" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:79">
       <c r="A69" s="6">
         <v>66</v>
       </c>
@@ -11193,7 +11106,7 @@
         <v>13301605.958514381</v>
       </c>
     </row>
-    <row r="70" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:79">
       <c r="A70" s="6">
         <v>67</v>
       </c>
@@ -11330,7 +11243,7 @@
         <v>5045236.9594768165</v>
       </c>
     </row>
-    <row r="71" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:79">
       <c r="A71" s="6">
         <v>68</v>
       </c>
@@ -11467,7 +11380,7 @@
         <v>9164580.4825970829</v>
       </c>
     </row>
-    <row r="72" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:79">
       <c r="A72" s="6">
         <v>69</v>
       </c>
@@ -11604,7 +11517,7 @@
         <v>13228589.350291006</v>
       </c>
     </row>
-    <row r="73" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:79">
       <c r="A73" s="6">
         <v>70</v>
       </c>
@@ -11741,7 +11654,7 @@
         <v>26822670.268100698</v>
       </c>
     </row>
-    <row r="74" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:79">
       <c r="A74" s="6">
         <v>71</v>
       </c>
@@ -11879,7 +11792,7 @@
         <v>164268201.07968768</v>
       </c>
     </row>
-    <row r="75" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:79">
       <c r="A75" s="6">
         <v>72</v>
       </c>
@@ -12019,7 +11932,7 @@
         <v>7649049.3582455851</v>
       </c>
     </row>
-    <row r="76" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:79">
       <c r="A76" s="6">
         <v>73</v>
       </c>
@@ -12159,7 +12072,7 @@
         <v>10782129.778068934</v>
       </c>
     </row>
-    <row r="77" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:79">
       <c r="A77" s="6">
         <v>74</v>
       </c>
@@ -12299,7 +12212,7 @@
         <v>39677212.345244937</v>
       </c>
     </row>
-    <row r="78" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:79">
       <c r="A78" s="6">
         <v>75</v>
       </c>
@@ -12439,7 +12352,7 @@
         <v>13066688.497465556</v>
       </c>
     </row>
-    <row r="79" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:79">
       <c r="A79" s="6">
         <v>76</v>
       </c>
@@ -12576,7 +12489,7 @@
         <v>2973268.4007766205</v>
       </c>
     </row>
-    <row r="80" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:79">
       <c r="A80" s="6">
         <v>77</v>
       </c>
@@ -12716,7 +12629,7 @@
         <v>8072693.5221886439</v>
       </c>
     </row>
-    <row r="81" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:79">
       <c r="A81" s="6">
         <v>78</v>
       </c>
@@ -12856,7 +12769,7 @@
         <v>19994289.569045551</v>
       </c>
     </row>
-    <row r="82" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:79">
       <c r="A82" s="6">
         <v>79</v>
       </c>
@@ -12996,7 +12909,7 @@
         <v>8988011.4392705299</v>
       </c>
     </row>
-    <row r="83" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:79">
       <c r="A83" s="6">
         <v>80</v>
       </c>
@@ -13133,7 +13046,7 @@
         <v>7304520.0485888924</v>
       </c>
     </row>
-    <row r="84" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:79">
       <c r="A84" s="6">
         <v>81</v>
       </c>
@@ -13273,7 +13186,7 @@
         <v>7116724.4067041418</v>
       </c>
     </row>
-    <row r="85" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:79">
       <c r="A85" s="6">
         <v>82</v>
       </c>
@@ -13413,7 +13326,7 @@
         <v>19522325.938571133</v>
       </c>
     </row>
-    <row r="86" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:79">
       <c r="A86" s="6">
         <v>83</v>
       </c>
@@ -13553,7 +13466,7 @@
         <v>23003002.872302718</v>
       </c>
     </row>
-    <row r="87" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:79">
       <c r="A87" s="6">
         <v>84</v>
       </c>
@@ -13693,7 +13606,7 @@
         <v>25087296.49800447</v>
       </c>
     </row>
-    <row r="88" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:79">
       <c r="A88" s="6">
         <v>85</v>
       </c>
@@ -13833,7 +13746,7 @@
         <v>6789797.3165053912</v>
       </c>
     </row>
-    <row r="89" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:79">
       <c r="A89" s="6">
         <v>86</v>
       </c>
@@ -13973,7 +13886,7 @@
         <v>58666745.00705453</v>
       </c>
     </row>
-    <row r="90" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:79">
       <c r="A90" s="6">
         <v>87</v>
       </c>
@@ -14113,7 +14026,7 @@
         <v>27352477.208698984</v>
       </c>
     </row>
-    <row r="91" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:79">
       <c r="A91" s="6">
         <v>88</v>
       </c>
@@ -14253,7 +14166,7 @@
         <v>5820369.9071855303</v>
       </c>
     </row>
-    <row r="92" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:79">
       <c r="A92" s="6">
         <v>89</v>
       </c>
@@ -14393,7 +14306,7 @@
         <v>28079426.771382619</v>
       </c>
     </row>
-    <row r="93" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:79">
       <c r="A93" s="6">
         <v>90</v>
       </c>
@@ -14533,7 +14446,7 @@
         <v>6256566.5015942929</v>
       </c>
     </row>
-    <row r="94" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:79">
       <c r="A94" s="6">
         <v>91</v>
       </c>
@@ -14673,7 +14586,7 @@
         <v>3838183.2288224441</v>
       </c>
     </row>
-    <row r="95" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:79">
       <c r="A95" s="6">
         <v>92</v>
       </c>
@@ -14813,7 +14726,7 @@
         <v>7400356.3904773751</v>
       </c>
     </row>
-    <row r="96" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:79">
       <c r="A96" s="6">
         <v>93</v>
       </c>
@@ -14953,7 +14866,7 @@
         <v>10948357.193133207</v>
       </c>
     </row>
-    <row r="97" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:79">
       <c r="A97" s="6">
         <v>94</v>
       </c>
@@ -15093,7 +15006,7 @@
         <v>45464718.07880567</v>
       </c>
     </row>
-    <row r="98" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:79">
       <c r="A98" s="6">
         <v>95</v>
       </c>
@@ -15233,7 +15146,7 @@
         <v>11109428.213895326</v>
       </c>
     </row>
-    <row r="99" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:79">
       <c r="A99" s="6">
         <v>96</v>
       </c>
@@ -15373,7 +15286,7 @@
         <v>4572268.9739707364</v>
       </c>
     </row>
-    <row r="100" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:79">
       <c r="A100" s="6">
         <v>97</v>
       </c>
@@ -15513,7 +15426,7 @@
         <v>2709060.4176065181</v>
       </c>
     </row>
-    <row r="101" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:79">
       <c r="A101" s="6">
         <v>98</v>
       </c>
@@ -15653,7 +15566,7 @@
         <v>5255760.5220108684</v>
       </c>
     </row>
-    <row r="102" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:79">
       <c r="A102" s="6">
         <v>99</v>
       </c>
@@ -15793,7 +15706,7 @@
         <v>6489868.3246893818</v>
       </c>
     </row>
-    <row r="103" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:79">
       <c r="A103" s="6">
         <v>100</v>
       </c>
@@ -15933,7 +15846,7 @@
         <v>7543565.4738421356</v>
       </c>
     </row>
-    <row r="104" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:79">
       <c r="A104" s="6">
         <v>101</v>
       </c>
@@ -16073,7 +15986,7 @@
         <v>12117781.003464183</v>
       </c>
     </row>
-    <row r="105" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:79">
       <c r="A105" s="6">
         <v>102</v>
       </c>
@@ -16213,7 +16126,7 @@
         <v>8809394.214428151</v>
       </c>
     </row>
-    <row r="106" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:79">
       <c r="A106" s="6">
         <v>103</v>
       </c>
@@ -16353,7 +16266,7 @@
         <v>678900.68816478364</v>
       </c>
     </row>
-    <row r="107" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:79">
       <c r="A107" s="6">
         <v>104</v>
       </c>
@@ -16493,7 +16406,7 @@
         <v>4974285.8899172749</v>
       </c>
     </row>
-    <row r="108" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:79">
       <c r="A108" s="6">
         <v>105</v>
       </c>
@@ -16633,7 +16546,7 @@
         <v>1088545.2766239352</v>
       </c>
     </row>
-    <row r="109" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:79">
       <c r="A109" s="6">
         <v>106</v>
       </c>
@@ -16773,7 +16686,7 @@
         <v>52082783.610653505</v>
       </c>
     </row>
-    <row r="110" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:79">
       <c r="A110" s="6">
         <v>107</v>
       </c>
@@ -16913,7 +16826,7 @@
         <v>12290984.256385187</v>
       </c>
     </row>
-    <row r="111" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:79">
       <c r="A111" s="6">
         <v>108</v>
       </c>
@@ -17053,7 +16966,7 @@
         <v>3066803.6502095521</v>
       </c>
     </row>
-    <row r="112" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:79">
       <c r="A112" s="6">
         <v>109</v>
       </c>
@@ -17193,7 +17106,7 @@
         <v>2947482.2989960085</v>
       </c>
     </row>
-    <row r="113" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:79">
       <c r="A113" s="6">
         <v>110</v>
       </c>
@@ -17333,7 +17246,7 @@
         <v>2348951.31708545</v>
       </c>
     </row>
-    <row r="114" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:79">
       <c r="A114" s="6">
         <v>111</v>
       </c>
@@ -17473,7 +17386,7 @@
         <v>63248249.619829677</v>
       </c>
     </row>
-    <row r="115" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:79">
       <c r="A115" s="6">
         <v>112</v>
       </c>
@@ -17613,7 +17526,7 @@
         <v>13889589.009591738</v>
       </c>
     </row>
-    <row r="116" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:79">
       <c r="A116" s="6">
         <v>113</v>
       </c>
@@ -17756,7 +17669,7 @@
         <v>235490977.70680729</v>
       </c>
     </row>
-    <row r="117" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:79">
       <c r="A117" s="6">
         <v>114</v>
       </c>
@@ -17899,7 +17812,7 @@
         <v>49262330.812185407</v>
       </c>
     </row>
-    <row r="118" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:79">
       <c r="A118" s="6">
         <v>115</v>
       </c>
@@ -18042,7 +17955,7 @@
         <v>8028034.3616316458</v>
       </c>
     </row>
-    <row r="119" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:79">
       <c r="A119" s="6">
         <v>116</v>
       </c>
@@ -18185,7 +18098,7 @@
         <v>10583608.474916514</v>
       </c>
     </row>
-    <row r="120" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:79">
       <c r="A120" s="6">
         <v>117</v>
       </c>
@@ -18328,7 +18241,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:79">
       <c r="A121" s="6">
         <v>118</v>
       </c>
@@ -18462,7 +18375,7 @@
         <v>1297983.4100093786</v>
       </c>
     </row>
-    <row r="122" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:79">
       <c r="A122" s="6">
         <v>119</v>
       </c>
@@ -18605,7 +18518,7 @@
         <v>29543246.049406879</v>
       </c>
     </row>
-    <row r="123" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:79">
       <c r="A123" s="6">
         <v>120</v>
       </c>
@@ -18748,7 +18661,7 @@
         <v>2637977.0185993165</v>
       </c>
     </row>
-    <row r="124" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:79">
       <c r="A124" s="6">
         <v>121</v>
       </c>
@@ -18891,7 +18804,7 @@
         <v>31872561.010480292</v>
       </c>
     </row>
-    <row r="125" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:79">
       <c r="A125" s="6">
         <v>122</v>
       </c>
@@ -19038,7 +18951,7 @@
         <v>6872333.2402530108</v>
       </c>
     </row>
-    <row r="126" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:79">
       <c r="A126" s="6">
         <v>123</v>
       </c>
@@ -19185,7 +19098,7 @@
         <v>3914783.9607362808</v>
       </c>
     </row>
-    <row r="127" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:79">
       <c r="A127" s="6">
         <v>124</v>
       </c>
@@ -19328,7 +19241,7 @@
         <v>1852023.369122196</v>
       </c>
     </row>
-    <row r="128" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:79">
       <c r="A128" s="6">
         <v>125</v>
       </c>
@@ -19471,7 +19384,7 @@
         <v>1244011.6722491751</v>
       </c>
     </row>
-    <row r="129" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:79">
       <c r="A129" s="6">
         <v>126</v>
       </c>
@@ -19614,7 +19527,7 @@
         <v>41257673.790805817</v>
       </c>
     </row>
-    <row r="130" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:79">
       <c r="A130" s="6">
         <v>127</v>
       </c>
@@ -19757,7 +19670,7 @@
         <v>67585104.423096091</v>
       </c>
     </row>
-    <row r="131" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:79">
       <c r="A131" s="6">
         <v>128</v>
       </c>
@@ -19904,7 +19817,7 @@
         <v>13532733.610484006</v>
       </c>
     </row>
-    <row r="132" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:79">
       <c r="A132" s="6">
         <v>129</v>
       </c>
@@ -20047,7 +19960,7 @@
         <v>67114344.710778445</v>
       </c>
     </row>
-    <row r="133" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:79">
       <c r="A133" s="6">
         <v>130</v>
       </c>
@@ -20190,7 +20103,7 @@
         <v>15234351.022086412</v>
       </c>
     </row>
-    <row r="134" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:79">
       <c r="A134" s="6">
         <v>131</v>
       </c>
@@ -20333,7 +20246,7 @@
         <v>2749487.7980388305</v>
       </c>
     </row>
-    <row r="135" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:79">
       <c r="A135" s="6">
         <v>132</v>
       </c>
@@ -20473,7 +20386,7 @@
         <v>5106842.6871653534</v>
       </c>
     </row>
-    <row r="136" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:79">
       <c r="A136" s="6">
         <v>133</v>
       </c>
@@ -20616,7 +20529,7 @@
         <v>5037843.3136479221</v>
       </c>
     </row>
-    <row r="137" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:79">
       <c r="A137" s="6">
         <v>134</v>
       </c>
@@ -20756,7 +20669,7 @@
         <v>54820548.191769145</v>
       </c>
     </row>
-    <row r="138" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:79">
       <c r="A138" s="6">
         <v>135</v>
       </c>
@@ -20899,7 +20812,7 @@
         <v>46112204.465421341</v>
       </c>
     </row>
-    <row r="139" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:79">
       <c r="A139" s="6">
         <v>136</v>
       </c>
@@ -21042,7 +20955,7 @@
         <v>71910800</v>
       </c>
     </row>
-    <row r="140" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:79">
       <c r="A140" s="6">
         <v>137</v>
       </c>
@@ -21185,7 +21098,7 @@
         <v>39447677.470876463</v>
       </c>
     </row>
-    <row r="141" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:79">
       <c r="A141" s="6">
         <v>138</v>
       </c>
@@ -21328,7 +21241,7 @@
         <v>20222961.447568141</v>
       </c>
     </row>
-    <row r="142" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:79">
       <c r="A142" s="6">
         <v>139</v>
       </c>
@@ -21471,7 +21384,7 @@
         <v>22021968.88697958</v>
       </c>
     </row>
-    <row r="143" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:79">
       <c r="A143" s="6">
         <v>140</v>
       </c>
@@ -21713,7 +21626,7 @@
         <v>12421834.359830219</v>
       </c>
     </row>
-    <row r="144" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:79">
       <c r="B144" s="6" t="s">
         <v>209</v>
       </c>
@@ -21742,7 +21655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="2:79" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:79">
       <c r="B145" s="6" t="s">
         <v>210</v>
       </c>
@@ -22059,12 +21972,11 @@
   <autoFilter ref="A3:CB147"/>
   <pageMargins left="0.15748031496062992" right="0.15748031496062992" top="0.27559055118110237" bottom="0.23622047244094491" header="0.31496062992125984" footer="0.23622047244094491"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:CB152"/>
   <sheetViews>
     <sheetView zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
@@ -22075,7 +21987,7 @@
       <selection pane="bottomRight" activeCell="BR142" sqref="BR142"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5.7109375" style="6" customWidth="1"/>
     <col min="2" max="2" width="23.42578125" style="6" customWidth="1"/>
@@ -22146,7 +22058,7 @@
     <col min="81" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:77" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:77" s="6" customFormat="1">
       <c r="B1" s="6" t="s">
         <v>224</v>
       </c>
@@ -22157,7 +22069,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="2" spans="1:77" s="6" customFormat="1" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:77" s="6" customFormat="1" ht="68.25" customHeight="1">
       <c r="C2" s="8" t="s">
         <v>1</v>
       </c>
@@ -22384,7 +22296,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="3" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:77">
       <c r="A3" s="6" t="s">
         <v>78</v>
       </c>
@@ -22590,7 +22502,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="4" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:77">
       <c r="A4" s="6">
         <v>1</v>
       </c>
@@ -22817,7 +22729,7 @@
         <v>21570150.870112009</v>
       </c>
     </row>
-    <row r="5" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:77">
       <c r="A5" s="6">
         <v>2</v>
       </c>
@@ -23044,7 +22956,7 @@
         <v>13183784.257147826</v>
       </c>
     </row>
-    <row r="6" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:77">
       <c r="A6" s="6">
         <v>3</v>
       </c>
@@ -23271,7 +23183,7 @@
         <v>6541294.4024029169</v>
       </c>
     </row>
-    <row r="7" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:77">
       <c r="A7" s="6">
         <v>4</v>
       </c>
@@ -23495,7 +23407,7 @@
         <v>3156512.0014608647</v>
       </c>
     </row>
-    <row r="8" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:77">
       <c r="A8" s="6">
         <v>5</v>
       </c>
@@ -23719,7 +23631,7 @@
         <v>1418315.6378433513</v>
       </c>
     </row>
-    <row r="9" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:77">
       <c r="A9" s="6">
         <v>6</v>
       </c>
@@ -23943,7 +23855,7 @@
         <v>2787110.8529320452</v>
       </c>
     </row>
-    <row r="10" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:77">
       <c r="A10" s="6">
         <v>7</v>
       </c>
@@ -24167,7 +24079,7 @@
         <v>2185078.8496911479</v>
       </c>
     </row>
-    <row r="11" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:77">
       <c r="A11" s="6">
         <v>8</v>
       </c>
@@ -24391,7 +24303,7 @@
         <v>3630882.6819421817</v>
       </c>
     </row>
-    <row r="12" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:77">
       <c r="A12" s="6">
         <v>9</v>
       </c>
@@ -24615,7 +24527,7 @@
         <v>7096969.4645252675</v>
       </c>
     </row>
-    <row r="13" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:77">
       <c r="A13" s="6">
         <v>10</v>
       </c>
@@ -24836,7 +24748,7 @@
         <v>8670300.2117859889</v>
       </c>
     </row>
-    <row r="14" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:77">
       <c r="A14" s="6">
         <v>11</v>
       </c>
@@ -25057,7 +24969,7 @@
         <v>792056.98268127022</v>
       </c>
     </row>
-    <row r="15" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:77">
       <c r="A15" s="6">
         <v>12</v>
       </c>
@@ -25278,7 +25190,7 @@
         <v>11133030.517567374</v>
       </c>
     </row>
-    <row r="16" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:77">
       <c r="A16" s="6">
         <v>13</v>
       </c>
@@ -25502,7 +25414,7 @@
         <v>1313637.746498317</v>
       </c>
     </row>
-    <row r="17" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:77">
       <c r="A17" s="6">
         <v>14</v>
       </c>
@@ -25720,7 +25632,7 @@
         <v>1006577.5207923538</v>
       </c>
     </row>
-    <row r="18" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:77">
       <c r="A18" s="6">
         <v>15</v>
       </c>
@@ -25938,7 +25850,7 @@
         <v>1235177.7868829367</v>
       </c>
     </row>
-    <row r="19" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:77">
       <c r="A19" s="6">
         <v>16</v>
       </c>
@@ -26159,7 +26071,7 @@
         <v>987532.14719296817</v>
       </c>
     </row>
-    <row r="20" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:77">
       <c r="A20" s="6">
         <v>17</v>
       </c>
@@ -26383,7 +26295,7 @@
         <v>2027096.5585278068</v>
       </c>
     </row>
-    <row r="21" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:77">
       <c r="A21" s="6">
         <v>18</v>
       </c>
@@ -26607,7 +26519,7 @@
         <v>19730098.628788762</v>
       </c>
     </row>
-    <row r="22" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:77">
       <c r="A22" s="6">
         <v>19</v>
       </c>
@@ -26831,7 +26743,7 @@
         <v>28761279.585092511</v>
       </c>
     </row>
-    <row r="23" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:77">
       <c r="A23" s="6">
         <v>20</v>
       </c>
@@ -27058,7 +26970,7 @@
         <v>23847083.762922172</v>
       </c>
     </row>
-    <row r="24" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:77">
       <c r="A24" s="6">
         <v>21</v>
       </c>
@@ -27276,7 +27188,7 @@
         <v>45097386.956381902</v>
       </c>
     </row>
-    <row r="25" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:77">
       <c r="A25" s="6">
         <v>22</v>
       </c>
@@ -27491,7 +27403,7 @@
         <v>63722.092684115436</v>
       </c>
     </row>
-    <row r="26" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:77">
       <c r="A26" s="6">
         <v>23</v>
       </c>
@@ -27712,7 +27624,7 @@
         <v>8433730.3613044191</v>
       </c>
     </row>
-    <row r="27" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:77">
       <c r="A27" s="6">
         <v>24</v>
       </c>
@@ -27939,7 +27851,7 @@
         <v>14842172.675970688</v>
       </c>
     </row>
-    <row r="28" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:77">
       <c r="A28" s="6">
         <v>25</v>
       </c>
@@ -28160,7 +28072,7 @@
         <v>10350761.915784771</v>
       </c>
     </row>
-    <row r="29" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:77">
       <c r="A29" s="6">
         <v>26</v>
       </c>
@@ -28387,7 +28299,7 @@
         <v>6824393.2889375482</v>
       </c>
     </row>
-    <row r="30" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:77">
       <c r="A30" s="6">
         <v>27</v>
       </c>
@@ -28614,7 +28526,7 @@
         <v>5261459.576382244</v>
       </c>
     </row>
-    <row r="31" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:77">
       <c r="A31" s="6">
         <v>28</v>
       </c>
@@ -28841,7 +28753,7 @@
         <v>7317432.1757585891</v>
       </c>
     </row>
-    <row r="32" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:77">
       <c r="A32" s="6">
         <v>29</v>
       </c>
@@ -29068,7 +28980,7 @@
         <v>5349567.6232637689</v>
       </c>
     </row>
-    <row r="33" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:77">
       <c r="A33" s="6">
         <v>30</v>
       </c>
@@ -29295,7 +29207,7 @@
         <v>26381602.043940078</v>
       </c>
     </row>
-    <row r="34" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:77">
       <c r="A34" s="6">
         <v>31</v>
       </c>
@@ -29516,7 +29428,7 @@
         <v>8648766.3833916672</v>
       </c>
     </row>
-    <row r="35" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:77">
       <c r="A35" s="6">
         <v>32</v>
       </c>
@@ -29737,7 +29649,7 @@
         <v>98455937.274517432</v>
       </c>
     </row>
-    <row r="36" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:77">
       <c r="A36" s="6">
         <v>33</v>
       </c>
@@ -29961,7 +29873,7 @@
         <v>9199319.157200817</v>
       </c>
     </row>
-    <row r="37" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:77">
       <c r="A37" s="6">
         <v>34</v>
       </c>
@@ -30185,7 +30097,7 @@
         <v>600371.17516906862</v>
       </c>
     </row>
-    <row r="38" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:77">
       <c r="A38" s="6">
         <v>35</v>
       </c>
@@ -30409,7 +30321,7 @@
         <v>214044.74731466462</v>
       </c>
     </row>
-    <row r="39" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:77">
       <c r="A39" s="6">
         <v>36</v>
       </c>
@@ -30633,7 +30545,7 @@
         <v>3281296.8589596967</v>
       </c>
     </row>
-    <row r="40" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:77">
       <c r="A40" s="6">
         <v>37</v>
       </c>
@@ -30857,7 +30769,7 @@
         <v>2020445.3733256694</v>
       </c>
     </row>
-    <row r="41" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:77">
       <c r="A41" s="6">
         <v>38</v>
       </c>
@@ -31084,7 +30996,7 @@
         <v>1394388.3793662472</v>
       </c>
     </row>
-    <row r="42" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:77">
       <c r="A42" s="6">
         <v>39</v>
       </c>
@@ -31308,7 +31220,7 @@
         <v>45503.361436215222</v>
       </c>
     </row>
-    <row r="43" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:77">
       <c r="A43" s="6">
         <v>40</v>
       </c>
@@ -31532,7 +31444,7 @@
         <v>15585505.153598245</v>
       </c>
     </row>
-    <row r="44" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:77">
       <c r="A44" s="6">
         <v>41</v>
       </c>
@@ -31759,7 +31671,7 @@
         <v>6922097.0605990216</v>
       </c>
     </row>
-    <row r="45" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:77">
       <c r="A45" s="6">
         <v>42</v>
       </c>
@@ -31986,7 +31898,7 @@
         <v>742854.81245225773</v>
       </c>
     </row>
-    <row r="46" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:77">
       <c r="A46" s="6">
         <v>43</v>
       </c>
@@ -32213,7 +32125,7 @@
         <v>2959869.7796544903</v>
       </c>
     </row>
-    <row r="47" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:77">
       <c r="A47" s="6">
         <v>44</v>
       </c>
@@ -32440,7 +32352,7 @@
         <v>4937848.3002543896</v>
       </c>
     </row>
-    <row r="48" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:77">
       <c r="A48" s="6">
         <v>45</v>
       </c>
@@ -32667,7 +32579,7 @@
         <v>18961824.071917109</v>
       </c>
     </row>
-    <row r="49" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:77">
       <c r="A49" s="6">
         <v>46</v>
       </c>
@@ -32894,7 +32806,7 @@
         <v>20056228.79941453</v>
       </c>
     </row>
-    <row r="50" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:77">
       <c r="A50" s="6">
         <v>47</v>
       </c>
@@ -33121,7 +33033,7 @@
         <v>27922140.544685174</v>
       </c>
     </row>
-    <row r="51" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:77">
       <c r="A51" s="6">
         <v>48</v>
       </c>
@@ -33348,7 +33260,7 @@
         <v>8748211.1605814211</v>
       </c>
     </row>
-    <row r="52" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:77">
       <c r="A52" s="6">
         <v>49</v>
       </c>
@@ -33575,7 +33487,7 @@
         <v>3823305.8184048003</v>
       </c>
     </row>
-    <row r="53" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:77">
       <c r="A53" s="6">
         <v>50</v>
       </c>
@@ -33802,7 +33714,7 @@
         <v>17690688.557163093</v>
       </c>
     </row>
-    <row r="54" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:77">
       <c r="A54" s="6">
         <v>51</v>
       </c>
@@ -34029,7 +33941,7 @@
         <v>6744222.6250401642</v>
       </c>
     </row>
-    <row r="55" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:77">
       <c r="A55" s="6">
         <v>52</v>
       </c>
@@ -34256,7 +34168,7 @@
         <v>2031842.3128224511</v>
       </c>
     </row>
-    <row r="56" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:77">
       <c r="A56" s="6">
         <v>53</v>
       </c>
@@ -34483,7 +34395,7 @@
         <v>3382435.2112396695</v>
       </c>
     </row>
-    <row r="57" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:77">
       <c r="A57" s="6">
         <v>54</v>
       </c>
@@ -34710,7 +34622,7 @@
         <v>573875.36812170409</v>
       </c>
     </row>
-    <row r="58" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:77">
       <c r="A58" s="6">
         <v>55</v>
       </c>
@@ -34937,7 +34849,7 @@
         <v>9143267.0739917401</v>
       </c>
     </row>
-    <row r="59" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:77">
       <c r="A59" s="6">
         <v>56</v>
       </c>
@@ -35164,7 +35076,7 @@
         <v>27316790.311978534</v>
       </c>
     </row>
-    <row r="60" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:77">
       <c r="A60" s="6">
         <v>57</v>
       </c>
@@ -35391,7 +35303,7 @@
         <v>20009035.582716964</v>
       </c>
     </row>
-    <row r="61" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:77">
       <c r="A61" s="6">
         <v>58</v>
       </c>
@@ -35618,7 +35530,7 @@
         <v>3643504.5954458117</v>
       </c>
     </row>
-    <row r="62" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:77">
       <c r="A62" s="6">
         <v>59</v>
       </c>
@@ -35845,7 +35757,7 @@
         <v>6586411.3264928265</v>
       </c>
     </row>
-    <row r="63" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:77">
       <c r="A63" s="6">
         <v>60</v>
       </c>
@@ -36075,7 +35987,7 @@
         <v>1321051.0031456361</v>
       </c>
     </row>
-    <row r="64" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:77">
       <c r="A64" s="6">
         <v>61</v>
       </c>
@@ -36305,7 +36217,7 @@
         <v>16619513.10752973</v>
       </c>
     </row>
-    <row r="65" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:77">
       <c r="A65" s="6">
         <v>62</v>
       </c>
@@ -36535,7 +36447,7 @@
         <v>9867537.2344239615</v>
       </c>
     </row>
-    <row r="66" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:77">
       <c r="A66" s="6">
         <v>63</v>
       </c>
@@ -36765,7 +36677,7 @@
         <v>4536542.6971995737</v>
       </c>
     </row>
-    <row r="67" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:77">
       <c r="A67" s="6">
         <v>64</v>
       </c>
@@ -36995,7 +36907,7 @@
         <v>3173553.5022104266</v>
       </c>
     </row>
-    <row r="68" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:77">
       <c r="A68" s="6">
         <v>65</v>
       </c>
@@ -37225,7 +37137,7 @@
         <v>8482859.8977942895</v>
       </c>
     </row>
-    <row r="69" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:77">
       <c r="A69" s="6">
         <v>66</v>
       </c>
@@ -37455,7 +37367,7 @@
         <v>13301605.957959369</v>
       </c>
     </row>
-    <row r="70" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:77">
       <c r="A70" s="6">
         <v>67</v>
       </c>
@@ -37685,7 +37597,7 @@
         <v>5045236.9593713135</v>
       </c>
     </row>
-    <row r="71" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:77">
       <c r="A71" s="6">
         <v>68</v>
       </c>
@@ -37915,7 +37827,7 @@
         <v>9164580.4824641086</v>
       </c>
     </row>
-    <row r="72" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:77">
       <c r="A72" s="6">
         <v>69</v>
       </c>
@@ -38145,7 +38057,7 @@
         <v>13228589.349828601</v>
       </c>
     </row>
-    <row r="73" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:77">
       <c r="A73" s="6">
         <v>70</v>
       </c>
@@ -38375,7 +38287,7 @@
         <v>26822670.267402291</v>
       </c>
     </row>
-    <row r="74" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:77">
       <c r="A74" s="6">
         <v>71</v>
       </c>
@@ -38605,7 +38517,7 @@
         <v>164268201.07545364</v>
       </c>
     </row>
-    <row r="75" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:77">
       <c r="A75" s="6">
         <v>72</v>
       </c>
@@ -38832,7 +38744,7 @@
         <v>7649049.3579276074</v>
       </c>
     </row>
-    <row r="76" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:77">
       <c r="A76" s="6">
         <v>73</v>
       </c>
@@ -39059,7 +38971,7 @@
         <v>10782129.777601112</v>
       </c>
     </row>
-    <row r="77" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:77">
       <c r="A77" s="6">
         <v>74</v>
       </c>
@@ -39286,7 +39198,7 @@
         <v>39677212.343725219</v>
       </c>
     </row>
-    <row r="78" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:77">
       <c r="A78" s="6">
         <v>75</v>
       </c>
@@ -39513,7 +39425,7 @@
         <v>13066688.497092582</v>
       </c>
     </row>
-    <row r="79" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:77">
       <c r="A79" s="6">
         <v>76</v>
       </c>
@@ -39740,7 +39652,7 @@
         <v>2973268.4006656506</v>
       </c>
     </row>
-    <row r="80" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:77">
       <c r="A80" s="6">
         <v>77</v>
       </c>
@@ -39967,7 +39879,7 @@
         <v>8072693.5218752678</v>
       </c>
     </row>
-    <row r="81" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:80">
       <c r="A81" s="6">
         <v>78</v>
       </c>
@@ -40194,7 +40106,7 @@
         <v>19994289.568256207</v>
       </c>
     </row>
-    <row r="82" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:80">
       <c r="A82" s="6">
         <v>79</v>
       </c>
@@ -40427,7 +40339,7 @@
       <c r="CA82" s="9"/>
       <c r="CB82" s="9"/>
     </row>
-    <row r="83" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:80">
       <c r="A83" s="6">
         <v>80</v>
       </c>
@@ -40654,7 +40566,7 @@
       <c r="CA83" s="9"/>
       <c r="CB83" s="9"/>
     </row>
-    <row r="84" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:80">
       <c r="A84" s="6">
         <v>81</v>
       </c>
@@ -40887,7 +40799,7 @@
       <c r="CA84" s="15"/>
       <c r="CB84" s="15"/>
     </row>
-    <row r="85" spans="1:80" ht="21" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:80" ht="21">
       <c r="A85" s="6">
         <v>82</v>
       </c>
@@ -41117,7 +41029,7 @@
       <c r="CA85" s="14"/>
       <c r="CB85" s="10"/>
     </row>
-    <row r="86" spans="1:80" ht="21" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:80" ht="21">
       <c r="A86" s="6">
         <v>83</v>
       </c>
@@ -41350,7 +41262,7 @@
       <c r="CA86" s="14"/>
       <c r="CB86" s="10"/>
     </row>
-    <row r="87" spans="1:80" ht="21" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:80" ht="21">
       <c r="A87" s="6">
         <v>84</v>
       </c>
@@ -41580,7 +41492,7 @@
       <c r="CA87" s="11"/>
       <c r="CB87" s="10"/>
     </row>
-    <row r="88" spans="1:80" ht="21" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:80" ht="21">
       <c r="A88" s="6">
         <v>85</v>
       </c>
@@ -41807,7 +41719,7 @@
       <c r="CA88" s="11"/>
       <c r="CB88" s="10"/>
     </row>
-    <row r="89" spans="1:80" ht="21" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:80" ht="21">
       <c r="A89" s="6">
         <v>86</v>
       </c>
@@ -42037,7 +41949,7 @@
       <c r="CA89" s="11"/>
       <c r="CB89" s="10"/>
     </row>
-    <row r="90" spans="1:80" ht="21" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:80" ht="21">
       <c r="A90" s="6">
         <v>87</v>
       </c>
@@ -42267,7 +42179,7 @@
       <c r="CA90" s="11"/>
       <c r="CB90" s="10"/>
     </row>
-    <row r="91" spans="1:80" ht="21" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:80" ht="21">
       <c r="A91" s="6">
         <v>88</v>
       </c>
@@ -42500,7 +42412,7 @@
       <c r="CA91" s="11"/>
       <c r="CB91" s="10"/>
     </row>
-    <row r="92" spans="1:80" ht="21" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:80" ht="21">
       <c r="A92" s="6">
         <v>89</v>
       </c>
@@ -42730,7 +42642,7 @@
       <c r="CA92" s="11"/>
       <c r="CB92" s="10"/>
     </row>
-    <row r="93" spans="1:80" ht="21" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:80" ht="21">
       <c r="A93" s="6">
         <v>90</v>
       </c>
@@ -42960,7 +42872,7 @@
       <c r="CA93" s="11"/>
       <c r="CB93" s="10"/>
     </row>
-    <row r="94" spans="1:80" ht="21" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:80" ht="21">
       <c r="A94" s="6">
         <v>91</v>
       </c>
@@ -43190,7 +43102,7 @@
       <c r="CA94" s="11"/>
       <c r="CB94" s="10"/>
     </row>
-    <row r="95" spans="1:80" ht="21" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:80" ht="21">
       <c r="A95" s="6">
         <v>92</v>
       </c>
@@ -43420,7 +43332,7 @@
       <c r="CA95" s="14"/>
       <c r="CB95" s="10"/>
     </row>
-    <row r="96" spans="1:80" ht="21" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:80" ht="21">
       <c r="A96" s="6">
         <v>93</v>
       </c>
@@ -43650,7 +43562,7 @@
       <c r="CA96" s="14"/>
       <c r="CB96" s="10"/>
     </row>
-    <row r="97" spans="1:80" ht="21" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:80" ht="21">
       <c r="A97" s="6">
         <v>94</v>
       </c>
@@ -43883,7 +43795,7 @@
       <c r="CA97" s="14"/>
       <c r="CB97" s="10"/>
     </row>
-    <row r="98" spans="1:80" ht="21" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:80" ht="21">
       <c r="A98" s="6">
         <v>95</v>
       </c>
@@ -44113,7 +44025,7 @@
       <c r="CA98" s="14"/>
       <c r="CB98" s="10"/>
     </row>
-    <row r="99" spans="1:80" ht="21" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:80" ht="21">
       <c r="A99" s="6">
         <v>96</v>
       </c>
@@ -44343,7 +44255,7 @@
       <c r="CA99" s="14"/>
       <c r="CB99" s="10"/>
     </row>
-    <row r="100" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:80">
       <c r="A100" s="6">
         <v>97</v>
       </c>
@@ -44573,7 +44485,7 @@
         <v>2709060.4175109202</v>
       </c>
     </row>
-    <row r="101" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:80">
       <c r="A101" s="6">
         <v>98</v>
       </c>
@@ -44803,7 +44715,7 @@
         <v>5255760.5218485752</v>
       </c>
     </row>
-    <row r="102" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:80">
       <c r="A102" s="6">
         <v>99</v>
       </c>
@@ -45033,7 +44945,7 @@
         <v>6489868.3246535333</v>
       </c>
     </row>
-    <row r="103" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:80">
       <c r="A103" s="6">
         <v>100</v>
       </c>
@@ -45260,7 +45172,7 @@
         <v>7543565.4738139007</v>
       </c>
     </row>
-    <row r="104" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:80">
       <c r="A104" s="6">
         <v>101</v>
       </c>
@@ -45487,7 +45399,7 @@
         <v>12117781.003288692</v>
       </c>
     </row>
-    <row r="105" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:80">
       <c r="A105" s="6">
         <v>102</v>
       </c>
@@ -45717,7 +45629,7 @@
         <v>8809394.2143745627</v>
       </c>
     </row>
-    <row r="106" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:80">
       <c r="A106" s="6">
         <v>103</v>
       </c>
@@ -45947,7 +45859,7 @@
         <v>678900.68814393564</v>
       </c>
     </row>
-    <row r="107" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:80">
       <c r="A107" s="6">
         <v>104</v>
       </c>
@@ -46174,7 +46086,7 @@
         <v>4974285.8898863746</v>
       </c>
     </row>
-    <row r="108" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:80">
       <c r="A108" s="6">
         <v>105</v>
       </c>
@@ -46401,7 +46313,7 @@
         <v>1088545.2766239035</v>
       </c>
     </row>
-    <row r="109" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:80">
       <c r="A109" s="6">
         <v>106</v>
       </c>
@@ -46631,7 +46543,7 @@
         <v>52082783.610395975</v>
       </c>
     </row>
-    <row r="110" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:80">
       <c r="A110" s="6">
         <v>107</v>
       </c>
@@ -46861,7 +46773,7 @@
         <v>12290984.256345971</v>
       </c>
     </row>
-    <row r="111" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:80">
       <c r="A111" s="6">
         <v>108</v>
       </c>
@@ -47091,7 +47003,7 @@
         <v>3066803.6501868689</v>
       </c>
     </row>
-    <row r="112" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:80">
       <c r="A112" s="6">
         <v>109</v>
       </c>
@@ -47318,7 +47230,7 @@
         <v>2947482.2989944569</v>
       </c>
     </row>
-    <row r="113" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:77">
       <c r="A113" s="6">
         <v>110</v>
       </c>
@@ -47548,7 +47460,7 @@
         <v>2348951.3170772148</v>
       </c>
     </row>
-    <row r="114" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:77">
       <c r="A114" s="6">
         <v>111</v>
       </c>
@@ -47778,7 +47690,7 @@
         <v>63248249.619392455</v>
       </c>
     </row>
-    <row r="115" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:77">
       <c r="A115" s="6">
         <v>112</v>
       </c>
@@ -48008,7 +47920,7 @@
         <v>13889589.009236094</v>
       </c>
     </row>
-    <row r="116" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:77">
       <c r="A116" s="6">
         <v>113</v>
       </c>
@@ -48235,7 +48147,7 @@
         <v>235490977.70476636</v>
       </c>
     </row>
-    <row r="117" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:77">
       <c r="A117" s="6">
         <v>114</v>
       </c>
@@ -48459,7 +48371,7 @@
         <v>49262330.810388178</v>
       </c>
     </row>
-    <row r="118" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:77">
       <c r="A118" s="6">
         <v>115</v>
       </c>
@@ -48686,7 +48598,7 @@
         <v>8028034.3615747858</v>
       </c>
     </row>
-    <row r="119" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:77">
       <c r="A119" s="6">
         <v>116</v>
       </c>
@@ -48910,7 +48822,7 @@
         <v>10583608.474470885</v>
       </c>
     </row>
-    <row r="120" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:77">
       <c r="A120" s="6">
         <v>117</v>
       </c>
@@ -49134,7 +49046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:77">
       <c r="A121" s="6">
         <v>118</v>
       </c>
@@ -49358,7 +49270,7 @@
         <v>1297983.409959801</v>
       </c>
     </row>
-    <row r="122" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:77">
       <c r="A122" s="6">
         <v>119</v>
       </c>
@@ -49582,7 +49494,7 @@
         <v>29543246.048876099</v>
       </c>
     </row>
-    <row r="123" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:77">
       <c r="A123" s="6">
         <v>120</v>
       </c>
@@ -49806,7 +49718,7 @@
         <v>2637977.0185740297</v>
       </c>
     </row>
-    <row r="124" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:77">
       <c r="A124" s="6">
         <v>121</v>
       </c>
@@ -50030,7 +49942,7 @@
         <v>31872561.010129433</v>
       </c>
     </row>
-    <row r="125" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:77">
       <c r="A125" s="6">
         <v>122</v>
       </c>
@@ -50254,7 +50166,7 @@
         <v>6872333.2400399717</v>
       </c>
     </row>
-    <row r="126" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:77">
       <c r="A126" s="6">
         <v>123</v>
       </c>
@@ -50475,7 +50387,7 @@
         <v>3914783.9607167663</v>
       </c>
     </row>
-    <row r="127" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:77">
       <c r="A127" s="6">
         <v>124</v>
       </c>
@@ -50696,7 +50608,7 @@
         <v>1852023.3690355434</v>
       </c>
     </row>
-    <row r="128" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:77">
       <c r="A128" s="6">
         <v>125</v>
       </c>
@@ -50917,7 +50829,7 @@
         <v>1244011.6721839693</v>
       </c>
     </row>
-    <row r="129" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:77">
       <c r="A129" s="6">
         <v>126</v>
       </c>
@@ -51141,7 +51053,7 @@
         <v>41257673.789768413</v>
       </c>
     </row>
-    <row r="130" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:77">
       <c r="A130" s="6">
         <v>127</v>
       </c>
@@ -51365,7 +51277,7 @@
         <v>67585104.421482995</v>
       </c>
     </row>
-    <row r="131" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:77">
       <c r="A131" s="6">
         <v>128</v>
       </c>
@@ -51589,7 +51501,7 @@
         <v>13532733.610293288</v>
       </c>
     </row>
-    <row r="132" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:77">
       <c r="A132" s="6">
         <v>129</v>
       </c>
@@ -51813,7 +51725,7 @@
         <v>67114344.710778445</v>
       </c>
     </row>
-    <row r="133" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:77">
       <c r="A133" s="6">
         <v>130</v>
       </c>
@@ -52034,7 +51946,7 @@
         <v>15234351.021387026</v>
       </c>
     </row>
-    <row r="134" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:77">
       <c r="A134" s="6">
         <v>131</v>
       </c>
@@ -52255,7 +52167,7 @@
         <v>2749487.7979107825</v>
       </c>
     </row>
-    <row r="135" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:77">
       <c r="A135" s="6">
         <v>132</v>
       </c>
@@ -52479,7 +52391,7 @@
         <v>5106842.977072564</v>
       </c>
     </row>
-    <row r="136" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:77">
       <c r="A136" s="6">
         <v>133</v>
       </c>
@@ -52703,7 +52615,7 @@
         <v>5037843.3135196492</v>
       </c>
     </row>
-    <row r="137" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:77">
       <c r="A137" s="6">
         <v>134</v>
       </c>
@@ -52927,7 +52839,7 @@
         <v>54820548.190770149</v>
       </c>
     </row>
-    <row r="138" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:77">
       <c r="A138" s="6">
         <v>135</v>
       </c>
@@ -53151,7 +53063,7 @@
         <v>46112204.465364255</v>
       </c>
     </row>
-    <row r="139" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:77">
       <c r="A139" s="6">
         <v>136</v>
       </c>
@@ -53378,7 +53290,7 @@
         <v>71910800</v>
       </c>
     </row>
-    <row r="140" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:77">
       <c r="A140" s="6">
         <v>137</v>
       </c>
@@ -53605,7 +53517,7 @@
         <v>39447677.470825337</v>
       </c>
     </row>
-    <row r="141" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:77">
       <c r="A141" s="6">
         <v>138</v>
       </c>
@@ -53832,7 +53744,7 @@
         <v>20222961.447562277</v>
       </c>
     </row>
-    <row r="142" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:77">
       <c r="A142" s="6">
         <v>139</v>
       </c>
@@ -54059,7 +53971,7 @@
         <v>22021968.886976324</v>
       </c>
     </row>
-    <row r="143" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:77">
       <c r="A143" s="6">
         <v>140</v>
       </c>
@@ -54286,7 +54198,7 @@
         <v>12421834.359788373</v>
       </c>
     </row>
-    <row r="144" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:77">
       <c r="B144" s="6" t="s">
         <v>231</v>
       </c>
@@ -54591,7 +54503,7 @@
         <v>2374724332.4578619</v>
       </c>
     </row>
-    <row r="145" spans="2:77" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:77">
       <c r="B145" s="6" t="s">
         <v>230</v>
       </c>
@@ -54864,7 +54776,7 @@
         <v>1991620570.8634286</v>
       </c>
     </row>
-    <row r="146" spans="2:77" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:77">
       <c r="B146" s="6" t="s">
         <v>222</v>
       </c>
@@ -55137,7 +55049,7 @@
         <v>927138256.11913896</v>
       </c>
     </row>
-    <row r="149" spans="2:77" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:77">
       <c r="B149" s="13" t="s">
         <v>226</v>
       </c>
@@ -55344,7 +55256,7 @@
         <v>308982056.11913931</v>
       </c>
     </row>
-    <row r="150" spans="2:77" x14ac:dyDescent="0.25">
+    <row r="150" spans="2:77">
       <c r="B150" s="13" t="s">
         <v>227</v>
       </c>
@@ -55551,7 +55463,7 @@
         <v>510829600.00000012</v>
       </c>
     </row>
-    <row r="151" spans="2:77" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:77">
       <c r="B151" s="13" t="s">
         <v>228</v>
       </c>
@@ -55758,7 +55670,7 @@
         <v>1330000.0000000002</v>
       </c>
     </row>
-    <row r="152" spans="2:77" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:77">
       <c r="B152" s="13" t="s">
         <v>229</v>
       </c>
@@ -55970,19 +55882,18 @@
   <autoFilter ref="A3:BY146"/>
   <pageMargins left="0.17" right="0.17" top="0.24" bottom="0.24" header="0.31496062992125984" footer="0.24"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D141"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:C1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="6" style="6" customWidth="1"/>
     <col min="2" max="2" width="20.7109375" style="6" customWidth="1"/>
@@ -55990,7 +55901,7 @@
     <col min="4" max="4" width="10.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="A1" s="6" t="s">
         <v>236</v>
       </c>
@@ -56002,7 +55913,7 @@
       </c>
       <c r="D1" s="19"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4">
       <c r="A2" s="6">
         <v>1</v>
       </c>
@@ -56013,7 +55924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4">
       <c r="A3" s="6">
         <v>2</v>
       </c>
@@ -56024,7 +55935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4">
       <c r="A4" s="6">
         <v>3</v>
       </c>
@@ -56035,7 +55946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4">
       <c r="A5" s="6">
         <v>4</v>
       </c>
@@ -56046,7 +55957,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4">
       <c r="A6" s="6">
         <v>5</v>
       </c>
@@ -56057,7 +55968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4">
       <c r="A7" s="6">
         <v>6</v>
       </c>
@@ -56068,7 +55979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4">
       <c r="A8" s="6">
         <v>7</v>
       </c>
@@ -56079,7 +55990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4">
       <c r="A9" s="6">
         <v>8</v>
       </c>
@@ -56090,7 +56001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4">
       <c r="A10" s="6">
         <v>9</v>
       </c>
@@ -56101,7 +56012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4">
       <c r="A11" s="6">
         <v>10</v>
       </c>
@@ -56112,7 +56023,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4">
       <c r="A12" s="6">
         <v>11</v>
       </c>
@@ -56123,7 +56034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4">
       <c r="A13" s="6">
         <v>12</v>
       </c>
@@ -56134,7 +56045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4">
       <c r="A14" s="6">
         <v>13</v>
       </c>
@@ -56145,7 +56056,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4">
       <c r="A15" s="6">
         <v>14</v>
       </c>
@@ -56156,7 +56067,7 @@
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4">
       <c r="A16" s="6">
         <v>15</v>
       </c>
@@ -56167,7 +56078,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3">
       <c r="A17" s="6">
         <v>16</v>
       </c>
@@ -56178,7 +56089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3">
       <c r="A18" s="6">
         <v>17</v>
       </c>
@@ -56189,7 +56100,7 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3">
       <c r="A19" s="6">
         <v>18</v>
       </c>
@@ -56200,7 +56111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3">
       <c r="A20" s="6">
         <v>19</v>
       </c>
@@ -56211,7 +56122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3">
       <c r="A21" s="6">
         <v>20</v>
       </c>
@@ -56222,7 +56133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3">
       <c r="A22" s="6">
         <v>21</v>
       </c>
@@ -56233,7 +56144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3">
       <c r="A23" s="6">
         <v>22</v>
       </c>
@@ -56244,7 +56155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3">
       <c r="A24" s="6">
         <v>23</v>
       </c>
@@ -56255,7 +56166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3">
       <c r="A25" s="6">
         <v>24</v>
       </c>
@@ -56266,7 +56177,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3">
       <c r="A26" s="6">
         <v>25</v>
       </c>
@@ -56277,7 +56188,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3">
       <c r="A27" s="6">
         <v>26</v>
       </c>
@@ -56288,7 +56199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3">
       <c r="A28" s="6">
         <v>27</v>
       </c>
@@ -56299,7 +56210,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3">
       <c r="A29" s="6">
         <v>28</v>
       </c>
@@ -56310,7 +56221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3">
       <c r="A30" s="6">
         <v>29</v>
       </c>
@@ -56321,7 +56232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3">
       <c r="A31" s="6">
         <v>30</v>
       </c>
@@ -56332,7 +56243,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3">
       <c r="A32" s="6">
         <v>31</v>
       </c>
@@ -56343,7 +56254,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3">
       <c r="A33" s="6">
         <v>32</v>
       </c>
@@ -56354,7 +56265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3">
       <c r="A34" s="6">
         <v>33</v>
       </c>
@@ -56365,7 +56276,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3">
       <c r="A35" s="6">
         <v>34</v>
       </c>
@@ -56376,7 +56287,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3">
       <c r="A36" s="6">
         <v>35</v>
       </c>
@@ -56387,7 +56298,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3">
       <c r="A37" s="6">
         <v>36</v>
       </c>
@@ -56398,7 +56309,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3">
       <c r="A38" s="6">
         <v>37</v>
       </c>
@@ -56409,7 +56320,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3">
       <c r="A39" s="6">
         <v>38</v>
       </c>
@@ -56420,7 +56331,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3">
       <c r="A40" s="6">
         <v>39</v>
       </c>
@@ -56431,7 +56342,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3">
       <c r="A41" s="6">
         <v>40</v>
       </c>
@@ -56442,7 +56353,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3">
       <c r="A42" s="6">
         <v>41</v>
       </c>
@@ -56453,7 +56364,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3">
       <c r="A43" s="6">
         <v>42</v>
       </c>
@@ -56464,7 +56375,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3">
       <c r="A44" s="6">
         <v>43</v>
       </c>
@@ -56475,7 +56386,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3">
       <c r="A45" s="6">
         <v>44</v>
       </c>
@@ -56486,7 +56397,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3">
       <c r="A46" s="6">
         <v>45</v>
       </c>
@@ -56497,7 +56408,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3">
       <c r="A47" s="6">
         <v>46</v>
       </c>
@@ -56508,7 +56419,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3">
       <c r="A48" s="6">
         <v>47</v>
       </c>
@@ -56519,7 +56430,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3">
       <c r="A49" s="6">
         <v>48</v>
       </c>
@@ -56530,7 +56441,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3">
       <c r="A50" s="6">
         <v>49</v>
       </c>
@@ -56541,7 +56452,7 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3">
       <c r="A51" s="6">
         <v>50</v>
       </c>
@@ -56552,7 +56463,7 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3">
       <c r="A52" s="6">
         <v>51</v>
       </c>
@@ -56563,7 +56474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3">
       <c r="A53" s="6">
         <v>52</v>
       </c>
@@ -56574,7 +56485,7 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3">
       <c r="A54" s="6">
         <v>53</v>
       </c>
@@ -56585,7 +56496,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3">
       <c r="A55" s="6">
         <v>54</v>
       </c>
@@ -56596,7 +56507,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3">
       <c r="A56" s="6">
         <v>55</v>
       </c>
@@ -56607,7 +56518,7 @@
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3">
       <c r="A57" s="6">
         <v>56</v>
       </c>
@@ -56618,7 +56529,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3">
       <c r="A58" s="6">
         <v>57</v>
       </c>
@@ -56629,7 +56540,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3">
       <c r="A59" s="6">
         <v>58</v>
       </c>
@@ -56640,7 +56551,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3">
       <c r="A60" s="6">
         <v>59</v>
       </c>
@@ -56651,7 +56562,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3">
       <c r="A61" s="6">
         <v>60</v>
       </c>
@@ -56662,7 +56573,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3">
       <c r="A62" s="6">
         <v>61</v>
       </c>
@@ -56673,7 +56584,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3">
       <c r="A63" s="6">
         <v>62</v>
       </c>
@@ -56684,7 +56595,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3">
       <c r="A64" s="6">
         <v>63</v>
       </c>
@@ -56695,7 +56606,7 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3">
       <c r="A65" s="6">
         <v>64</v>
       </c>
@@ -56706,7 +56617,7 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3">
       <c r="A66" s="6">
         <v>65</v>
       </c>
@@ -56717,7 +56628,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3">
       <c r="A67" s="6">
         <v>66</v>
       </c>
@@ -56728,7 +56639,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3">
       <c r="A68" s="6">
         <v>67</v>
       </c>
@@ -56739,7 +56650,7 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3">
       <c r="A69" s="6">
         <v>68</v>
       </c>
@@ -56750,7 +56661,7 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3">
       <c r="A70" s="6">
         <v>69</v>
       </c>
@@ -56761,7 +56672,7 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3">
       <c r="A71" s="6">
         <v>70</v>
       </c>
@@ -56772,7 +56683,7 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3">
       <c r="A72" s="6">
         <v>71</v>
       </c>
@@ -56783,7 +56694,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3">
       <c r="A73" s="6">
         <v>72</v>
       </c>
@@ -56794,7 +56705,7 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3">
       <c r="A74" s="6">
         <v>73</v>
       </c>
@@ -56805,7 +56716,7 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3">
       <c r="A75" s="6">
         <v>74</v>
       </c>
@@ -56816,7 +56727,7 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:3">
       <c r="A76" s="6">
         <v>75</v>
       </c>
@@ -56827,7 +56738,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:3">
       <c r="A77" s="6">
         <v>76</v>
       </c>
@@ -56838,7 +56749,7 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:3">
       <c r="A78" s="6">
         <v>77</v>
       </c>
@@ -56849,7 +56760,7 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:3">
       <c r="A79" s="6">
         <v>78</v>
       </c>
@@ -56860,7 +56771,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:3">
       <c r="A80" s="6">
         <v>79</v>
       </c>
@@ -56871,7 +56782,7 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:3">
       <c r="A81" s="6">
         <v>80</v>
       </c>
@@ -56882,7 +56793,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:3">
       <c r="A82" s="6">
         <v>81</v>
       </c>
@@ -56893,7 +56804,7 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:3">
       <c r="A83" s="6">
         <v>82</v>
       </c>
@@ -56904,7 +56815,7 @@
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:3">
       <c r="A84" s="6">
         <v>83</v>
       </c>
@@ -56915,7 +56826,7 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:3">
       <c r="A85" s="6">
         <v>84</v>
       </c>
@@ -56926,7 +56837,7 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:3">
       <c r="A86" s="6">
         <v>85</v>
       </c>
@@ -56937,7 +56848,7 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:3">
       <c r="A87" s="6">
         <v>86</v>
       </c>
@@ -56948,7 +56859,7 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:3">
       <c r="A88" s="6">
         <v>87</v>
       </c>
@@ -56959,7 +56870,7 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:3">
       <c r="A89" s="6">
         <v>88</v>
       </c>
@@ -56970,7 +56881,7 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:3">
       <c r="A90" s="6">
         <v>89</v>
       </c>
@@ -56981,7 +56892,7 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:3">
       <c r="A91" s="6">
         <v>90</v>
       </c>
@@ -56992,7 +56903,7 @@
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:3">
       <c r="A92" s="6">
         <v>91</v>
       </c>
@@ -57003,7 +56914,7 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:3">
       <c r="A93" s="6">
         <v>92</v>
       </c>
@@ -57014,7 +56925,7 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:3">
       <c r="A94" s="6">
         <v>93</v>
       </c>
@@ -57025,7 +56936,7 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:3">
       <c r="A95" s="6">
         <v>94</v>
       </c>
@@ -57036,7 +56947,7 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:3">
       <c r="A96" s="6">
         <v>95</v>
       </c>
@@ -57047,7 +56958,7 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:3">
       <c r="A97" s="6">
         <v>96</v>
       </c>
@@ -57058,7 +56969,7 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:3">
       <c r="A98" s="6">
         <v>97</v>
       </c>
@@ -57069,7 +56980,7 @@
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:3">
       <c r="A99" s="6">
         <v>98</v>
       </c>
@@ -57080,7 +56991,7 @@
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:3">
       <c r="A100" s="6">
         <v>99</v>
       </c>
@@ -57091,7 +57002,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:3">
       <c r="A101" s="6">
         <v>100</v>
       </c>
@@ -57102,7 +57013,7 @@
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:3">
       <c r="A102" s="6">
         <v>101</v>
       </c>
@@ -57113,7 +57024,7 @@
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:3">
       <c r="A103" s="6">
         <v>102</v>
       </c>
@@ -57124,7 +57035,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:3">
       <c r="A104" s="6">
         <v>103</v>
       </c>
@@ -57135,7 +57046,7 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:3">
       <c r="A105" s="6">
         <v>104</v>
       </c>
@@ -57146,7 +57057,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:3">
       <c r="A106" s="6">
         <v>105</v>
       </c>
@@ -57157,7 +57068,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:3">
       <c r="A107" s="6">
         <v>106</v>
       </c>
@@ -57168,7 +57079,7 @@
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:3">
       <c r="A108" s="6">
         <v>107</v>
       </c>
@@ -57179,7 +57090,7 @@
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:3">
       <c r="A109" s="6">
         <v>108</v>
       </c>
@@ -57190,7 +57101,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:3">
       <c r="A110" s="6">
         <v>109</v>
       </c>
@@ -57201,7 +57112,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:3">
       <c r="A111" s="6">
         <v>110</v>
       </c>
@@ -57212,7 +57123,7 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:3">
       <c r="A112" s="6">
         <v>111</v>
       </c>
@@ -57223,7 +57134,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:3">
       <c r="A113" s="6">
         <v>112</v>
       </c>
@@ -57234,7 +57145,7 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:3">
       <c r="A114" s="6">
         <v>113</v>
       </c>
@@ -57245,7 +57156,7 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:3">
       <c r="A115" s="6">
         <v>114</v>
       </c>
@@ -57256,7 +57167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:3">
       <c r="A116" s="6">
         <v>115</v>
       </c>
@@ -57267,7 +57178,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:3">
       <c r="A117" s="6">
         <v>116</v>
       </c>
@@ -57278,7 +57189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:3">
       <c r="A118" s="6">
         <v>117</v>
       </c>
@@ -57289,7 +57200,7 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:3">
       <c r="A119" s="6">
         <v>118</v>
       </c>
@@ -57300,7 +57211,7 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:3">
       <c r="A120" s="6">
         <v>119</v>
       </c>
@@ -57311,7 +57222,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:3">
       <c r="A121" s="6">
         <v>120</v>
       </c>
@@ -57322,7 +57233,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:3">
       <c r="A122" s="6">
         <v>121</v>
       </c>
@@ -57333,7 +57244,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:3">
       <c r="A123" s="6">
         <v>122</v>
       </c>
@@ -57344,7 +57255,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:3">
       <c r="A124" s="6">
         <v>123</v>
       </c>
@@ -57355,7 +57266,7 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:3">
       <c r="A125" s="6">
         <v>124</v>
       </c>
@@ -57366,7 +57277,7 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:3">
       <c r="A126" s="6">
         <v>125</v>
       </c>
@@ -57377,7 +57288,7 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:3">
       <c r="A127" s="6">
         <v>126</v>
       </c>
@@ -57388,7 +57299,7 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:3">
       <c r="A128" s="6">
         <v>127</v>
       </c>
@@ -57399,7 +57310,7 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:3">
       <c r="A129" s="6">
         <v>128</v>
       </c>
@@ -57410,7 +57321,7 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:3">
       <c r="A130" s="6">
         <v>129</v>
       </c>
@@ -57421,7 +57332,7 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:3">
       <c r="A131" s="6">
         <v>130</v>
       </c>
@@ -57432,7 +57343,7 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:3">
       <c r="A132" s="6">
         <v>131</v>
       </c>
@@ -57443,7 +57354,7 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:3">
       <c r="A133" s="6">
         <v>132</v>
       </c>
@@ -57454,7 +57365,7 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:3">
       <c r="A134" s="6">
         <v>133</v>
       </c>
@@ -57465,7 +57376,7 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:3">
       <c r="A135" s="6">
         <v>134</v>
       </c>
@@ -57476,7 +57387,7 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:3">
       <c r="A136" s="6">
         <v>135</v>
       </c>
@@ -57487,7 +57398,7 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:3">
       <c r="A137" s="6">
         <v>136</v>
       </c>
@@ -57498,7 +57409,7 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:3">
       <c r="A138" s="6">
         <v>137</v>
       </c>
@@ -57509,7 +57420,7 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:3">
       <c r="A139" s="6">
         <v>138</v>
       </c>
@@ -57520,7 +57431,7 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:3">
       <c r="A140" s="6">
         <v>139</v>
       </c>
@@ -57531,7 +57442,7 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:3">
       <c r="A141" s="6">
         <v>140</v>
       </c>
@@ -57549,19 +57460,19 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C141"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="6" style="21" customWidth="1"/>
     <col min="2" max="2" width="20.7109375" style="21" customWidth="1"/>
     <col min="3" max="3" width="10.140625" style="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" s="21" t="s">
         <v>236</v>
       </c>
@@ -57572,7 +57483,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="A2" s="21">
         <v>1</v>
       </c>
@@ -57583,7 +57494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3">
       <c r="A3" s="21">
         <v>2</v>
       </c>
@@ -57594,7 +57505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3">
       <c r="A4" s="21">
         <v>3</v>
       </c>
@@ -57605,7 +57516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3">
       <c r="A5" s="21">
         <v>4</v>
       </c>
@@ -57616,7 +57527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3">
       <c r="A6" s="21">
         <v>5</v>
       </c>
@@ -57627,7 +57538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3">
       <c r="A7" s="21">
         <v>6</v>
       </c>
@@ -57638,7 +57549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3">
       <c r="A8" s="21">
         <v>7</v>
       </c>
@@ -57649,7 +57560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3">
       <c r="A9" s="21">
         <v>8</v>
       </c>
@@ -57660,7 +57571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3">
       <c r="A10" s="21">
         <v>9</v>
       </c>
@@ -57671,7 +57582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3">
       <c r="A11" s="21">
         <v>10</v>
       </c>
@@ -57682,7 +57593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3">
       <c r="A12" s="21">
         <v>11</v>
       </c>
@@ -57693,7 +57604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3">
       <c r="A13" s="21">
         <v>12</v>
       </c>
@@ -57704,7 +57615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3">
       <c r="A14" s="21">
         <v>13</v>
       </c>
@@ -57715,7 +57626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3">
       <c r="A15" s="21">
         <v>14</v>
       </c>
@@ -57726,7 +57637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3">
       <c r="A16" s="21">
         <v>15</v>
       </c>
@@ -57737,7 +57648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3">
       <c r="A17" s="21">
         <v>16</v>
       </c>
@@ -57748,7 +57659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3">
       <c r="A18" s="21">
         <v>17</v>
       </c>
@@ -57759,7 +57670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3">
       <c r="A19" s="21">
         <v>18</v>
       </c>
@@ -57770,7 +57681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3">
       <c r="A20" s="21">
         <v>19</v>
       </c>
@@ -57781,7 +57692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3">
       <c r="A21" s="21">
         <v>20</v>
       </c>
@@ -57792,7 +57703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3">
       <c r="A22" s="21">
         <v>21</v>
       </c>
@@ -57803,7 +57714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3">
       <c r="A23" s="21">
         <v>22</v>
       </c>
@@ -57814,7 +57725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3">
       <c r="A24" s="21">
         <v>23</v>
       </c>
@@ -57825,7 +57736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3">
       <c r="A25" s="21">
         <v>24</v>
       </c>
@@ -57836,7 +57747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3">
       <c r="A26" s="21">
         <v>25</v>
       </c>
@@ -57847,7 +57758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3">
       <c r="A27" s="21">
         <v>26</v>
       </c>
@@ -57858,7 +57769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3">
       <c r="A28" s="21">
         <v>27</v>
       </c>
@@ -57869,7 +57780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3">
       <c r="A29" s="21">
         <v>28</v>
       </c>
@@ -57880,7 +57791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3">
       <c r="A30" s="21">
         <v>29</v>
       </c>
@@ -57891,7 +57802,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3">
       <c r="A31" s="21">
         <v>30</v>
       </c>
@@ -57902,7 +57813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3">
       <c r="A32" s="21">
         <v>31</v>
       </c>
@@ -57913,7 +57824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3">
       <c r="A33" s="21">
         <v>32</v>
       </c>
@@ -57924,7 +57835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3">
       <c r="A34" s="21">
         <v>33</v>
       </c>
@@ -57935,7 +57846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3">
       <c r="A35" s="21">
         <v>34</v>
       </c>
@@ -57946,7 +57857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3">
       <c r="A36" s="21">
         <v>35</v>
       </c>
@@ -57957,7 +57868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3">
       <c r="A37" s="21">
         <v>36</v>
       </c>
@@ -57968,7 +57879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3">
       <c r="A38" s="21">
         <v>37</v>
       </c>
@@ -57979,7 +57890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3">
       <c r="A39" s="21">
         <v>38</v>
       </c>
@@ -57990,7 +57901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3">
       <c r="A40" s="21">
         <v>39</v>
       </c>
@@ -58001,7 +57912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3">
       <c r="A41" s="21">
         <v>40</v>
       </c>
@@ -58012,7 +57923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3">
       <c r="A42" s="21">
         <v>41</v>
       </c>
@@ -58023,7 +57934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3">
       <c r="A43" s="21">
         <v>42</v>
       </c>
@@ -58034,7 +57945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3">
       <c r="A44" s="21">
         <v>43</v>
       </c>
@@ -58045,7 +57956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3">
       <c r="A45" s="21">
         <v>44</v>
       </c>
@@ -58056,7 +57967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3">
       <c r="A46" s="21">
         <v>45</v>
       </c>
@@ -58067,7 +57978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3">
       <c r="A47" s="21">
         <v>46</v>
       </c>
@@ -58078,7 +57989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3">
       <c r="A48" s="21">
         <v>47</v>
       </c>
@@ -58089,7 +58000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3">
       <c r="A49" s="21">
         <v>48</v>
       </c>
@@ -58100,7 +58011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3">
       <c r="A50" s="21">
         <v>49</v>
       </c>
@@ -58111,7 +58022,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3">
       <c r="A51" s="21">
         <v>50</v>
       </c>
@@ -58122,7 +58033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3">
       <c r="A52" s="21">
         <v>51</v>
       </c>
@@ -58133,7 +58044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3">
       <c r="A53" s="21">
         <v>52</v>
       </c>
@@ -58144,7 +58055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3">
       <c r="A54" s="21">
         <v>53</v>
       </c>
@@ -58155,7 +58066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3">
       <c r="A55" s="21">
         <v>54</v>
       </c>
@@ -58166,7 +58077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3">
       <c r="A56" s="21">
         <v>55</v>
       </c>
@@ -58177,7 +58088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3">
       <c r="A57" s="21">
         <v>56</v>
       </c>
@@ -58188,7 +58099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3">
       <c r="A58" s="21">
         <v>57</v>
       </c>
@@ -58199,7 +58110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3">
       <c r="A59" s="21">
         <v>58</v>
       </c>
@@ -58210,7 +58121,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3">
       <c r="A60" s="21">
         <v>59</v>
       </c>
@@ -58221,7 +58132,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3">
       <c r="A61" s="21">
         <v>60</v>
       </c>
@@ -58232,7 +58143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3">
       <c r="A62" s="21">
         <v>61</v>
       </c>
@@ -58243,7 +58154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3">
       <c r="A63" s="21">
         <v>62</v>
       </c>
@@ -58254,7 +58165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3">
       <c r="A64" s="21">
         <v>63</v>
       </c>
@@ -58265,7 +58176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3">
       <c r="A65" s="21">
         <v>64</v>
       </c>
@@ -58276,7 +58187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3">
       <c r="A66" s="21">
         <v>65</v>
       </c>
@@ -58287,7 +58198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3">
       <c r="A67" s="21">
         <v>66</v>
       </c>
@@ -58298,7 +58209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3">
       <c r="A68" s="21">
         <v>67</v>
       </c>
@@ -58309,7 +58220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3">
       <c r="A69" s="21">
         <v>68</v>
       </c>
@@ -58320,7 +58231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3">
       <c r="A70" s="21">
         <v>69</v>
       </c>
@@ -58331,7 +58242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3">
       <c r="A71" s="21">
         <v>70</v>
       </c>
@@ -58342,7 +58253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3">
       <c r="A72" s="21">
         <v>71</v>
       </c>
@@ -58353,7 +58264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3">
       <c r="A73" s="21">
         <v>72</v>
       </c>
@@ -58364,7 +58275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3">
       <c r="A74" s="21">
         <v>73</v>
       </c>
@@ -58375,7 +58286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3">
       <c r="A75" s="21">
         <v>74</v>
       </c>
@@ -58386,7 +58297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:3">
       <c r="A76" s="21">
         <v>75</v>
       </c>
@@ -58397,7 +58308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:3">
       <c r="A77" s="21">
         <v>76</v>
       </c>
@@ -58408,7 +58319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:3">
       <c r="A78" s="21">
         <v>77</v>
       </c>
@@ -58419,7 +58330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:3">
       <c r="A79" s="21">
         <v>78</v>
       </c>
@@ -58430,7 +58341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:3">
       <c r="A80" s="21">
         <v>79</v>
       </c>
@@ -58441,7 +58352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:3">
       <c r="A81" s="21">
         <v>80</v>
       </c>
@@ -58452,7 +58363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:3">
       <c r="A82" s="21">
         <v>81</v>
       </c>
@@ -58463,7 +58374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:3">
       <c r="A83" s="21">
         <v>82</v>
       </c>
@@ -58474,7 +58385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:3">
       <c r="A84" s="21">
         <v>83</v>
       </c>
@@ -58485,7 +58396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:3">
       <c r="A85" s="21">
         <v>84</v>
       </c>
@@ -58496,7 +58407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:3">
       <c r="A86" s="21">
         <v>85</v>
       </c>
@@ -58507,7 +58418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:3">
       <c r="A87" s="21">
         <v>86</v>
       </c>
@@ -58518,7 +58429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:3">
       <c r="A88" s="21">
         <v>87</v>
       </c>
@@ -58529,7 +58440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:3">
       <c r="A89" s="21">
         <v>88</v>
       </c>
@@ -58540,7 +58451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:3">
       <c r="A90" s="21">
         <v>89</v>
       </c>
@@ -58551,7 +58462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:3">
       <c r="A91" s="21">
         <v>90</v>
       </c>
@@ -58562,7 +58473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:3">
       <c r="A92" s="21">
         <v>91</v>
       </c>
@@ -58573,7 +58484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:3">
       <c r="A93" s="21">
         <v>92</v>
       </c>
@@ -58584,7 +58495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:3">
       <c r="A94" s="21">
         <v>93</v>
       </c>
@@ -58595,7 +58506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:3">
       <c r="A95" s="21">
         <v>94</v>
       </c>
@@ -58606,7 +58517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:3">
       <c r="A96" s="21">
         <v>95</v>
       </c>
@@ -58617,7 +58528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:3">
       <c r="A97" s="21">
         <v>96</v>
       </c>
@@ -58628,7 +58539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:3">
       <c r="A98" s="21">
         <v>97</v>
       </c>
@@ -58639,7 +58550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:3">
       <c r="A99" s="21">
         <v>98</v>
       </c>
@@ -58650,7 +58561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:3">
       <c r="A100" s="21">
         <v>99</v>
       </c>
@@ -58661,7 +58572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:3">
       <c r="A101" s="21">
         <v>100</v>
       </c>
@@ -58672,7 +58583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:3">
       <c r="A102" s="21">
         <v>101</v>
       </c>
@@ -58683,7 +58594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:3">
       <c r="A103" s="21">
         <v>102</v>
       </c>
@@ -58694,7 +58605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:3">
       <c r="A104" s="21">
         <v>103</v>
       </c>
@@ -58705,7 +58616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:3">
       <c r="A105" s="21">
         <v>104</v>
       </c>
@@ -58716,7 +58627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:3">
       <c r="A106" s="21">
         <v>105</v>
       </c>
@@ -58727,7 +58638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:3">
       <c r="A107" s="21">
         <v>106</v>
       </c>
@@ -58738,7 +58649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:3">
       <c r="A108" s="21">
         <v>107</v>
       </c>
@@ -58749,7 +58660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:3">
       <c r="A109" s="21">
         <v>108</v>
       </c>
@@ -58760,7 +58671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:3">
       <c r="A110" s="21">
         <v>109</v>
       </c>
@@ -58771,7 +58682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:3">
       <c r="A111" s="21">
         <v>110</v>
       </c>
@@ -58782,7 +58693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:3">
       <c r="A112" s="21">
         <v>111</v>
       </c>
@@ -58793,7 +58704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:3">
       <c r="A113" s="21">
         <v>112</v>
       </c>
@@ -58804,7 +58715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:3">
       <c r="A114" s="21">
         <v>113</v>
       </c>
@@ -58815,7 +58726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:3">
       <c r="A115" s="21">
         <v>114</v>
       </c>
@@ -58826,7 +58737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:3">
       <c r="A116" s="21">
         <v>115</v>
       </c>
@@ -58837,7 +58748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:3">
       <c r="A117" s="21">
         <v>116</v>
       </c>
@@ -58848,7 +58759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:3">
       <c r="A118" s="21">
         <v>117</v>
       </c>
@@ -58859,7 +58770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:3">
       <c r="A119" s="21">
         <v>118</v>
       </c>
@@ -58870,7 +58781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:3">
       <c r="A120" s="21">
         <v>119</v>
       </c>
@@ -58881,7 +58792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:3">
       <c r="A121" s="21">
         <v>120</v>
       </c>
@@ -58892,7 +58803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:3">
       <c r="A122" s="21">
         <v>121</v>
       </c>
@@ -58903,7 +58814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:3">
       <c r="A123" s="21">
         <v>122</v>
       </c>
@@ -58914,7 +58825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:3">
       <c r="A124" s="21">
         <v>123</v>
       </c>
@@ -58925,7 +58836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:3">
       <c r="A125" s="21">
         <v>124</v>
       </c>
@@ -58936,7 +58847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:3">
       <c r="A126" s="21">
         <v>125</v>
       </c>
@@ -58947,7 +58858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:3">
       <c r="A127" s="21">
         <v>126</v>
       </c>
@@ -58958,7 +58869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:3">
       <c r="A128" s="21">
         <v>127</v>
       </c>
@@ -58969,7 +58880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:3">
       <c r="A129" s="21">
         <v>128</v>
       </c>
@@ -58980,7 +58891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:3">
       <c r="A130" s="21">
         <v>129</v>
       </c>
@@ -58991,7 +58902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:3">
       <c r="A131" s="21">
         <v>130</v>
       </c>
@@ -59002,7 +58913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:3">
       <c r="A132" s="21">
         <v>131</v>
       </c>
@@ -59013,7 +58924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:3">
       <c r="A133" s="21">
         <v>132</v>
       </c>
@@ -59024,7 +58935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:3">
       <c r="A134" s="21">
         <v>133</v>
       </c>
@@ -59035,7 +58946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:3">
       <c r="A135" s="21">
         <v>134</v>
       </c>
@@ -59046,7 +58957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:3">
       <c r="A136" s="21">
         <v>135</v>
       </c>
@@ -59057,7 +58968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:3">
       <c r="A137" s="21">
         <v>136</v>
       </c>
@@ -59068,7 +58979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:3">
       <c r="A138" s="21">
         <v>137</v>
       </c>
@@ -59079,7 +58990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:3">
       <c r="A139" s="21">
         <v>138</v>
       </c>
@@ -59090,7 +59001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:3">
       <c r="A140" s="21">
         <v>139</v>
       </c>
@@ -59101,7 +59012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:3">
       <c r="A141" s="21">
         <v>140</v>
       </c>
@@ -59118,21 +59029,21 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C141"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="6" style="21" customWidth="1"/>
     <col min="2" max="2" width="20.7109375" style="21" customWidth="1"/>
     <col min="3" max="3" width="10.140625" style="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" s="21" t="s">
         <v>236</v>
       </c>
@@ -59143,7 +59054,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="A2" s="21">
         <v>1</v>
       </c>
@@ -59154,7 +59065,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3">
       <c r="A3" s="21">
         <v>2</v>
       </c>
@@ -59165,7 +59076,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3">
       <c r="A4" s="21">
         <v>3</v>
       </c>
@@ -59176,7 +59087,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3">
       <c r="A5" s="21">
         <v>4</v>
       </c>
@@ -59187,7 +59098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3">
       <c r="A6" s="21">
         <v>5</v>
       </c>
@@ -59198,7 +59109,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3">
       <c r="A7" s="21">
         <v>6</v>
       </c>
@@ -59209,7 +59120,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3">
       <c r="A8" s="21">
         <v>7</v>
       </c>
@@ -59220,7 +59131,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3">
       <c r="A9" s="21">
         <v>8</v>
       </c>
@@ -59231,7 +59142,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3">
       <c r="A10" s="21">
         <v>9</v>
       </c>
@@ -59242,7 +59153,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3">
       <c r="A11" s="21">
         <v>10</v>
       </c>
@@ -59253,7 +59164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3">
       <c r="A12" s="21">
         <v>11</v>
       </c>
@@ -59264,7 +59175,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3">
       <c r="A13" s="21">
         <v>12</v>
       </c>
@@ -59275,7 +59186,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3">
       <c r="A14" s="21">
         <v>13</v>
       </c>
@@ -59286,7 +59197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3">
       <c r="A15" s="21">
         <v>14</v>
       </c>
@@ -59297,7 +59208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3">
       <c r="A16" s="21">
         <v>15</v>
       </c>
@@ -59308,7 +59219,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3">
       <c r="A17" s="21">
         <v>16</v>
       </c>
@@ -59319,7 +59230,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3">
       <c r="A18" s="21">
         <v>17</v>
       </c>
@@ -59330,7 +59241,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3">
       <c r="A19" s="21">
         <v>18</v>
       </c>
@@ -59341,7 +59252,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3">
       <c r="A20" s="21">
         <v>19</v>
       </c>
@@ -59352,7 +59263,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3">
       <c r="A21" s="21">
         <v>20</v>
       </c>
@@ -59363,7 +59274,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3">
       <c r="A22" s="21">
         <v>21</v>
       </c>
@@ -59374,7 +59285,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3">
       <c r="A23" s="21">
         <v>22</v>
       </c>
@@ -59385,7 +59296,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3">
       <c r="A24" s="21">
         <v>23</v>
       </c>
@@ -59396,7 +59307,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3">
       <c r="A25" s="21">
         <v>24</v>
       </c>
@@ -59407,7 +59318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3">
       <c r="A26" s="21">
         <v>25</v>
       </c>
@@ -59418,7 +59329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3">
       <c r="A27" s="21">
         <v>26</v>
       </c>
@@ -59429,7 +59340,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3">
       <c r="A28" s="21">
         <v>27</v>
       </c>
@@ -59440,7 +59351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3">
       <c r="A29" s="21">
         <v>28</v>
       </c>
@@ -59451,7 +59362,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3">
       <c r="A30" s="21">
         <v>29</v>
       </c>
@@ -59462,7 +59373,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3">
       <c r="A31" s="21">
         <v>30</v>
       </c>
@@ -59473,7 +59384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3">
       <c r="A32" s="21">
         <v>31</v>
       </c>
@@ -59484,7 +59395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3">
       <c r="A33" s="21">
         <v>32</v>
       </c>
@@ -59495,7 +59406,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3">
       <c r="A34" s="21">
         <v>33</v>
       </c>
@@ -59506,7 +59417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3">
       <c r="A35" s="21">
         <v>34</v>
       </c>
@@ -59517,7 +59428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3">
       <c r="A36" s="21">
         <v>35</v>
       </c>
@@ -59528,7 +59439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3">
       <c r="A37" s="21">
         <v>36</v>
       </c>
@@ -59539,7 +59450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3">
       <c r="A38" s="21">
         <v>37</v>
       </c>
@@ -59550,7 +59461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3">
       <c r="A39" s="21">
         <v>38</v>
       </c>
@@ -59561,7 +59472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3">
       <c r="A40" s="21">
         <v>39</v>
       </c>
@@ -59572,7 +59483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3">
       <c r="A41" s="21">
         <v>40</v>
       </c>
@@ -59583,7 +59494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3">
       <c r="A42" s="21">
         <v>41</v>
       </c>
@@ -59594,7 +59505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3">
       <c r="A43" s="21">
         <v>42</v>
       </c>
@@ -59605,7 +59516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3">
       <c r="A44" s="21">
         <v>43</v>
       </c>
@@ -59616,7 +59527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3">
       <c r="A45" s="21">
         <v>44</v>
       </c>
@@ -59627,7 +59538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3">
       <c r="A46" s="21">
         <v>45</v>
       </c>
@@ -59638,7 +59549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3">
       <c r="A47" s="21">
         <v>46</v>
       </c>
@@ -59649,7 +59560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3">
       <c r="A48" s="21">
         <v>47</v>
       </c>
@@ -59660,7 +59571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3">
       <c r="A49" s="21">
         <v>48</v>
       </c>
@@ -59671,7 +59582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3">
       <c r="A50" s="21">
         <v>49</v>
       </c>
@@ -59682,7 +59593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3">
       <c r="A51" s="21">
         <v>50</v>
       </c>
@@ -59693,7 +59604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3">
       <c r="A52" s="21">
         <v>51</v>
       </c>
@@ -59704,7 +59615,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3">
       <c r="A53" s="21">
         <v>52</v>
       </c>
@@ -59715,7 +59626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3">
       <c r="A54" s="21">
         <v>53</v>
       </c>
@@ -59726,7 +59637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3">
       <c r="A55" s="21">
         <v>54</v>
       </c>
@@ -59737,7 +59648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3">
       <c r="A56" s="21">
         <v>55</v>
       </c>
@@ -59748,7 +59659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3">
       <c r="A57" s="21">
         <v>56</v>
       </c>
@@ -59759,7 +59670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3">
       <c r="A58" s="21">
         <v>57</v>
       </c>
@@ -59770,7 +59681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3">
       <c r="A59" s="21">
         <v>58</v>
       </c>
@@ -59781,7 +59692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3">
       <c r="A60" s="21">
         <v>59</v>
       </c>
@@ -59792,7 +59703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3">
       <c r="A61" s="21">
         <v>60</v>
       </c>
@@ -59803,7 +59714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3">
       <c r="A62" s="21">
         <v>61</v>
       </c>
@@ -59814,7 +59725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3">
       <c r="A63" s="21">
         <v>62</v>
       </c>
@@ -59825,7 +59736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3">
       <c r="A64" s="21">
         <v>63</v>
       </c>
@@ -59836,7 +59747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3">
       <c r="A65" s="21">
         <v>64</v>
       </c>
@@ -59847,7 +59758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3">
       <c r="A66" s="21">
         <v>65</v>
       </c>
@@ -59858,7 +59769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3">
       <c r="A67" s="21">
         <v>66</v>
       </c>
@@ -59869,7 +59780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3">
       <c r="A68" s="21">
         <v>67</v>
       </c>
@@ -59880,7 +59791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3">
       <c r="A69" s="21">
         <v>68</v>
       </c>
@@ -59891,7 +59802,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3">
       <c r="A70" s="21">
         <v>69</v>
       </c>
@@ -59902,7 +59813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3">
       <c r="A71" s="21">
         <v>70</v>
       </c>
@@ -59913,7 +59824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3">
       <c r="A72" s="21">
         <v>71</v>
       </c>
@@ -59924,7 +59835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3">
       <c r="A73" s="21">
         <v>72</v>
       </c>
@@ -59935,7 +59846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3">
       <c r="A74" s="21">
         <v>73</v>
       </c>
@@ -59946,7 +59857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3">
       <c r="A75" s="21">
         <v>74</v>
       </c>
@@ -59957,7 +59868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:3">
       <c r="A76" s="21">
         <v>75</v>
       </c>
@@ -59968,7 +59879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:3">
       <c r="A77" s="21">
         <v>76</v>
       </c>
@@ -59979,7 +59890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:3">
       <c r="A78" s="21">
         <v>77</v>
       </c>
@@ -59990,7 +59901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:3">
       <c r="A79" s="21">
         <v>78</v>
       </c>
@@ -60001,7 +59912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:3">
       <c r="A80" s="21">
         <v>79</v>
       </c>
@@ -60012,7 +59923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:3">
       <c r="A81" s="21">
         <v>80</v>
       </c>
@@ -60023,7 +59934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:3">
       <c r="A82" s="21">
         <v>81</v>
       </c>
@@ -60034,7 +59945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:3">
       <c r="A83" s="21">
         <v>82</v>
       </c>
@@ -60045,7 +59956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:3">
       <c r="A84" s="21">
         <v>83</v>
       </c>
@@ -60056,7 +59967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:3">
       <c r="A85" s="21">
         <v>84</v>
       </c>
@@ -60067,7 +59978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:3">
       <c r="A86" s="21">
         <v>85</v>
       </c>
@@ -60078,7 +59989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:3">
       <c r="A87" s="21">
         <v>86</v>
       </c>
@@ -60089,7 +60000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:3">
       <c r="A88" s="21">
         <v>87</v>
       </c>
@@ -60100,7 +60011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:3">
       <c r="A89" s="21">
         <v>88</v>
       </c>
@@ -60111,7 +60022,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:3">
       <c r="A90" s="21">
         <v>89</v>
       </c>
@@ -60122,7 +60033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:3">
       <c r="A91" s="21">
         <v>90</v>
       </c>
@@ -60133,7 +60044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:3">
       <c r="A92" s="21">
         <v>91</v>
       </c>
@@ -60144,7 +60055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:3">
       <c r="A93" s="21">
         <v>92</v>
       </c>
@@ -60155,7 +60066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:3">
       <c r="A94" s="21">
         <v>93</v>
       </c>
@@ -60166,7 +60077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:3">
       <c r="A95" s="21">
         <v>94</v>
       </c>
@@ -60177,7 +60088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:3">
       <c r="A96" s="21">
         <v>95</v>
       </c>
@@ -60188,7 +60099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:3">
       <c r="A97" s="21">
         <v>96</v>
       </c>
@@ -60199,7 +60110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:3">
       <c r="A98" s="21">
         <v>97</v>
       </c>
@@ -60210,7 +60121,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:3">
       <c r="A99" s="21">
         <v>98</v>
       </c>
@@ -60221,7 +60132,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:3">
       <c r="A100" s="21">
         <v>99</v>
       </c>
@@ -60232,7 +60143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:3">
       <c r="A101" s="21">
         <v>100</v>
       </c>
@@ -60243,7 +60154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:3">
       <c r="A102" s="21">
         <v>101</v>
       </c>
@@ -60254,7 +60165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:3">
       <c r="A103" s="21">
         <v>102</v>
       </c>
@@ -60265,7 +60176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:3">
       <c r="A104" s="21">
         <v>103</v>
       </c>
@@ -60276,7 +60187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:3">
       <c r="A105" s="21">
         <v>104</v>
       </c>
@@ -60287,7 +60198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:3">
       <c r="A106" s="21">
         <v>105</v>
       </c>
@@ -60298,7 +60209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:3">
       <c r="A107" s="21">
         <v>106</v>
       </c>
@@ -60309,7 +60220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:3">
       <c r="A108" s="21">
         <v>107</v>
       </c>
@@ -60320,7 +60231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:3">
       <c r="A109" s="21">
         <v>108</v>
       </c>
@@ -60331,7 +60242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:3">
       <c r="A110" s="21">
         <v>109</v>
       </c>
@@ -60342,7 +60253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:3">
       <c r="A111" s="21">
         <v>110</v>
       </c>
@@ -60353,7 +60264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:3">
       <c r="A112" s="21">
         <v>111</v>
       </c>
@@ -60364,7 +60275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:3">
       <c r="A113" s="21">
         <v>112</v>
       </c>
@@ -60375,7 +60286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:3">
       <c r="A114" s="21">
         <v>113</v>
       </c>
@@ -60386,7 +60297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:3">
       <c r="A115" s="21">
         <v>114</v>
       </c>
@@ -60397,7 +60308,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:3">
       <c r="A116" s="21">
         <v>115</v>
       </c>
@@ -60408,7 +60319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:3">
       <c r="A117" s="21">
         <v>116</v>
       </c>
@@ -60419,7 +60330,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:3">
       <c r="A118" s="21">
         <v>117</v>
       </c>
@@ -60430,7 +60341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:3">
       <c r="A119" s="21">
         <v>118</v>
       </c>
@@ -60441,7 +60352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:3">
       <c r="A120" s="21">
         <v>119</v>
       </c>
@@ -60452,7 +60363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:3">
       <c r="A121" s="21">
         <v>120</v>
       </c>
@@ -60463,7 +60374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:3">
       <c r="A122" s="21">
         <v>121</v>
       </c>
@@ -60474,7 +60385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:3">
       <c r="A123" s="21">
         <v>122</v>
       </c>
@@ -60485,7 +60396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:3">
       <c r="A124" s="21">
         <v>123</v>
       </c>
@@ -60496,7 +60407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:3">
       <c r="A125" s="21">
         <v>124</v>
       </c>
@@ -60507,7 +60418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:3">
       <c r="A126" s="21">
         <v>125</v>
       </c>
@@ -60518,7 +60429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:3">
       <c r="A127" s="21">
         <v>126</v>
       </c>
@@ -60529,7 +60440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:3">
       <c r="A128" s="21">
         <v>127</v>
       </c>
@@ -60540,7 +60451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:3">
       <c r="A129" s="21">
         <v>128</v>
       </c>
@@ -60551,7 +60462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:3">
       <c r="A130" s="21">
         <v>129</v>
       </c>
@@ -60562,7 +60473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:3">
       <c r="A131" s="21">
         <v>130</v>
       </c>
@@ -60573,7 +60484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:3">
       <c r="A132" s="21">
         <v>131</v>
       </c>
@@ -60584,7 +60495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:3">
       <c r="A133" s="21">
         <v>132</v>
       </c>
@@ -60595,7 +60506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:3">
       <c r="A134" s="21">
         <v>133</v>
       </c>
@@ -60606,7 +60517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:3">
       <c r="A135" s="21">
         <v>134</v>
       </c>
@@ -60617,7 +60528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:3">
       <c r="A136" s="21">
         <v>135</v>
       </c>
@@ -60628,7 +60539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:3">
       <c r="A137" s="21">
         <v>136</v>
       </c>
@@ -60639,7 +60550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:3">
       <c r="A138" s="21">
         <v>137</v>
       </c>
@@ -60650,7 +60561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:3">
       <c r="A139" s="21">
         <v>138</v>
       </c>
@@ -60661,7 +60572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:3">
       <c r="A140" s="21">
         <v>139</v>
       </c>
@@ -60672,7 +60583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:3">
       <c r="A141" s="21">
         <v>140</v>
       </c>
